--- a/Preprocessed Data/combined/test_b.xlsx
+++ b/Preprocessed Data/combined/test_b.xlsx
@@ -855,25 +855,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.071843176078421</v>
+        <v>-1.116279069767442</v>
       </c>
       <c r="D2">
-        <v>1.732843691578214</v>
+        <v>1.487179487179487</v>
       </c>
       <c r="E2">
-        <v>1.099072706890399</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="F2">
-        <v>0.5501777399688998</v>
+        <v>0.5681595022044551</v>
       </c>
       <c r="G2">
-        <v>1.264150943396227</v>
+        <v>1.162393162393162</v>
       </c>
       <c r="H2">
-        <v>0.7368996287712074</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="I2">
-        <v>-0.4806552470369371</v>
+        <v>-0.3956043956043956</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -897,16 +897,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>-1.252336448598131</v>
+        <v>-1.046875</v>
       </c>
       <c r="R2">
-        <v>-0.7453489749092458</v>
+        <v>-0.7</v>
       </c>
       <c r="S2">
-        <v>-0.5557366826993591</v>
+        <v>-0.5</v>
       </c>
       <c r="T2">
-        <v>-0.5223176680903909</v>
+        <v>-0.3913043478260868</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -963,88 +963,88 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.07839526432199764</v>
+        <v>-0.06504065040650407</v>
       </c>
       <c r="AN2">
-        <v>0.8721933894395308</v>
+        <v>0.906344410876133</v>
       </c>
       <c r="AO2">
-        <v>0.9044216466712557</v>
+        <v>1.022680412371134</v>
       </c>
       <c r="AP2">
-        <v>0.7464496655042016</v>
+        <v>0.7079065396230343</v>
       </c>
       <c r="AQ2">
-        <v>0.3606830129181717</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="AR2">
-        <v>1.125052372539945</v>
+        <v>1.023255813953488</v>
       </c>
       <c r="AS2">
-        <v>3.043015963361549</v>
+        <v>2.505910165484633</v>
       </c>
       <c r="AT2">
-        <v>1.105729875573439</v>
+        <v>1.167315175097275</v>
       </c>
       <c r="AU2">
-        <v>-0.4884577503616008</v>
+        <v>-0.5391304347826086</v>
       </c>
       <c r="AV2">
-        <v>0.7350096711798841</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="AW2">
-        <v>-0.1049519586104951</v>
+        <v>-0.09752066115702492</v>
       </c>
       <c r="AX2">
-        <v>0.08539342793152709</v>
+        <v>0.1066020593579648</v>
       </c>
       <c r="AY2">
-        <v>1.212095351950982</v>
+        <v>1.020576131687242</v>
       </c>
       <c r="AZ2">
-        <v>0.05852440189784439</v>
+        <v>0.2105263157894731</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="BB2">
-        <v>-0.7278837996427995</v>
+        <v>-0.6815168883216655</v>
       </c>
       <c r="BC2">
-        <v>-0.7999999999999998</v>
+        <v>-0.8421052631578944</v>
       </c>
       <c r="BD2">
-        <v>-1.013359091250334</v>
+        <v>-1.129032258064516</v>
       </c>
       <c r="BE2">
-        <v>-1.375811253896004</v>
+        <v>-1.194034730974188</v>
       </c>
       <c r="BF2">
-        <v>1.272727272727273</v>
+        <v>1.345454545454545</v>
       </c>
       <c r="BG2">
-        <v>1.91972024140131</v>
+        <v>2.011548548819028</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI2">
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>-0.004770252050798476</v>
+        <v>0.1002419633598345</v>
       </c>
       <c r="BK2">
-        <v>-0.8561283794880452</v>
+        <v>-0.8660022148394239</v>
       </c>
       <c r="BL2">
-        <v>0.08155031487784879</v>
+        <v>0.2106299212598423</v>
       </c>
       <c r="BM2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BN2">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO2">
         <v>1</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>-0.6647600996588859</v>
+        <v>-0.5</v>
       </c>
       <c r="BS2">
-        <v>-0.3654020960477084</v>
+        <v>-0.2426578432501516</v>
       </c>
       <c r="BT2">
-        <v>0.9166233714240667</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="BW2">
-        <v>-0.1659021610090055</v>
+        <v>-0.09502937906939808</v>
       </c>
       <c r="BX2">
-        <v>-0.3329734958718821</v>
+        <v>-0.3935844598437566</v>
       </c>
       <c r="BY2">
-        <v>-0.2769017474850835</v>
+        <v>-0.09085230821645564</v>
       </c>
       <c r="BZ2">
-        <v>-1.338119070642108</v>
+        <v>-1.081949470255033</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -1094,25 +1094,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4716109974745051</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="D3">
-        <v>1.045935357681748</v>
+        <v>0.8717948717948725</v>
       </c>
       <c r="E3">
-        <v>-0.58390811514221</v>
+        <v>-0.5909090909090909</v>
       </c>
       <c r="F3">
-        <v>-1.088886445328933</v>
+        <v>-0.9882298736307903</v>
       </c>
       <c r="G3">
-        <v>-0.4716981132075473</v>
+        <v>-0.4102564102564106</v>
       </c>
       <c r="H3">
-        <v>-0.5964337045621259</v>
+        <v>-0.6166666666666667</v>
       </c>
       <c r="I3">
-        <v>-0.3891018666489491</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1136,16 +1136,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4672897196261682</v>
+        <v>0.390625</v>
       </c>
       <c r="R3">
-        <v>0.2661960624675878</v>
+        <v>0.25</v>
       </c>
       <c r="S3">
-        <v>-0.08907001603269234</v>
+        <v>-0.0625</v>
       </c>
       <c r="T3">
-        <v>-0.1741058893634637</v>
+        <v>-0.04347826086956506</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1202,88 +1202,88 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.2787387175893249</v>
+        <v>-0.4390243902439024</v>
       </c>
       <c r="AN3">
-        <v>-0.5421902775038641</v>
+        <v>-0.4833836858006044</v>
       </c>
       <c r="AO3">
-        <v>-0.4274763652294801</v>
+        <v>-0.3463917525773196</v>
       </c>
       <c r="AP3">
-        <v>-0.4714418940026537</v>
+        <v>-0.5704439758408828</v>
       </c>
       <c r="AQ3">
-        <v>-0.6098821854798178</v>
+        <v>-0.6486486486486485</v>
       </c>
       <c r="AR3">
-        <v>-0.5850272337207713</v>
+        <v>-0.7441860465116279</v>
       </c>
       <c r="AS3">
-        <v>-0.5282216389231369</v>
+        <v>-0.4349881796690306</v>
       </c>
       <c r="AT3">
-        <v>-0.3228415529979896</v>
+        <v>-0.3891050583657585</v>
       </c>
       <c r="AU3">
-        <v>-0.4627661402530816</v>
+        <v>-0.5043478260869558</v>
       </c>
       <c r="AV3">
-        <v>-0.8123791102514508</v>
+        <v>-0.9795918367346939</v>
       </c>
       <c r="AW3">
-        <v>1.49150036954915</v>
+        <v>1.687603305785124</v>
       </c>
       <c r="AX3">
-        <v>-0.395801655011093</v>
+        <v>-0.3609933373712901</v>
       </c>
       <c r="AY3">
-        <v>-0.2541490254090769</v>
+        <v>-0.213991769547325</v>
       </c>
       <c r="AZ3">
-        <v>-0.6734103139086588</v>
+        <v>-0.6315789473684211</v>
       </c>
       <c r="BA3">
-        <v>0.3278235106735679</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="BB3">
-        <v>0.6079292647777603</v>
+        <v>0.7258568863188083</v>
       </c>
       <c r="BC3">
-        <v>0.2000000000000002</v>
+        <v>0.2105263157894738</v>
       </c>
       <c r="BD3">
-        <v>-0.5066795456251668</v>
+        <v>-0.4838709677419355</v>
       </c>
       <c r="BE3">
-        <v>-0.3221335859129165</v>
+        <v>-0.2200903095229026</v>
       </c>
       <c r="BF3">
-        <v>1.345454545454545</v>
+        <v>1.418181818181818</v>
       </c>
       <c r="BG3">
-        <v>1.312479038040317</v>
+        <v>1.372980037052712</v>
       </c>
       <c r="BH3">
-        <v>-0.9056413007621048</v>
+        <v>-0.5217391304347826</v>
       </c>
       <c r="BI3">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ3">
-        <v>-1.006523182718535</v>
+        <v>-0.7708261320428618</v>
       </c>
       <c r="BK3">
-        <v>-1.009092766413795</v>
+        <v>-1.034330011074197</v>
       </c>
       <c r="BL3">
-        <v>-0.971599291421362</v>
+        <v>-0.8425196850393685</v>
       </c>
       <c r="BM3">
-        <v>-0.5</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN3">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.6647600996588859</v>
+        <v>0.5</v>
       </c>
       <c r="BS3">
-        <v>-0.794357361951602</v>
+        <v>-0.6470875820004043</v>
       </c>
       <c r="BT3">
-        <v>1.00166313338562</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="BU3">
         <v>1</v>
@@ -1310,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>-0.3795482342839669</v>
+        <v>-0.3996823884389391</v>
       </c>
       <c r="BX3">
-        <v>-0.3423653316338379</v>
+        <v>-0.4062090410410217</v>
       </c>
       <c r="BY3">
-        <v>-0.3211420639537303</v>
+        <v>-0.145363693146329</v>
       </c>
       <c r="BZ3">
-        <v>-0.9820595013113048</v>
+        <v>-0.7940539676284707</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.672075354682336</v>
+        <v>1.86046511627907</v>
       </c>
       <c r="D4">
-        <v>0.5879964684174372</v>
+        <v>0.4615384615384624</v>
       </c>
       <c r="E4">
-        <v>0.7447609548835342</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="F4">
-        <v>0.7441829731667068</v>
+        <v>0.7523790626792265</v>
       </c>
       <c r="G4">
-        <v>0.6981132075471703</v>
+        <v>0.6495726495726495</v>
       </c>
       <c r="H4">
-        <v>0.1702329621045408</v>
+        <v>0.15</v>
       </c>
       <c r="I4">
-        <v>-0.5264319372309312</v>
+        <v>-0.4395604395604396</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1375,16 +1375,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.214953271028037</v>
+        <v>1.015625</v>
       </c>
       <c r="R4">
-        <v>1.863372437273114</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>0.1775966506339743</v>
+        <v>0.1875</v>
       </c>
       <c r="T4">
-        <v>0.0870529446817315</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1441,88 +1441,88 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.1742116984933281</v>
+        <v>-0.2439024390243902</v>
       </c>
       <c r="AN4">
-        <v>0.4909247487852244</v>
+        <v>0.5317220543806647</v>
       </c>
       <c r="AO4">
-        <v>0.1421908567280636</v>
+        <v>0.2391752577319588</v>
       </c>
       <c r="AP4">
-        <v>1.257178384007077</v>
+        <v>1.243989013849839</v>
       </c>
       <c r="AQ4">
-        <v>0.9115443417386525</v>
+        <v>0.9189189189189192</v>
       </c>
       <c r="AR4">
-        <v>-0.2700125694095867</v>
+        <v>-0.4186046511627907</v>
       </c>
       <c r="AS4">
-        <v>0.3215262149966919</v>
+        <v>0.2647754137115837</v>
       </c>
       <c r="AT4">
-        <v>0.634301304144868</v>
+        <v>0.6536964980544747</v>
       </c>
       <c r="AU4">
-        <v>1.040193051095266</v>
+        <v>1.530434782608696</v>
       </c>
       <c r="AV4">
-        <v>-1.237911025145068</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="AW4">
-        <v>-0.07538802660753871</v>
+        <v>-0.06446280991735548</v>
       </c>
       <c r="AX4">
-        <v>0.1626838298549532</v>
+        <v>0.1817080557238038</v>
       </c>
       <c r="AY4">
-        <v>3.14753793006626</v>
+        <v>2.650205761316872</v>
       </c>
       <c r="AZ4">
-        <v>1.156426475607602</v>
+        <v>1.473684210526317</v>
       </c>
       <c r="BA4">
-        <v>1.043074806688625</v>
+        <v>1.174603174603175</v>
       </c>
       <c r="BB4">
-        <v>0.6700011726196594</v>
+        <v>0.7912540422273583</v>
       </c>
       <c r="BC4">
-        <v>1.2</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="BD4">
-        <v>1.418702727750467</v>
+        <v>1.967741935483871</v>
       </c>
       <c r="BE4">
-        <v>1.184562632958408</v>
+        <v>1.172592122477759</v>
       </c>
       <c r="BF4">
-        <v>0.3272727272727273</v>
+        <v>0.4</v>
       </c>
       <c r="BG4">
-        <v>-1.016443249318771</v>
+        <v>-1.076090333710979</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI4">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ4">
-        <v>0.9683611663121461</v>
+        <v>0.9464223988938826</v>
       </c>
       <c r="BK4">
-        <v>0.7781753334554943</v>
+        <v>0.932447397563677</v>
       </c>
       <c r="BL4">
-        <v>0.9240699999172163</v>
+        <v>1.05314960629921</v>
       </c>
       <c r="BM4">
-        <v>1.499999999999998</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BN4">
-        <v>1.600702484138386</v>
+        <v>1.999999999999998</v>
       </c>
       <c r="BO4">
         <v>1</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>-0.332380049829443</v>
+        <v>-0.25</v>
       </c>
       <c r="BS4">
-        <v>3.709672930039281</v>
+        <v>3.599424674877249</v>
       </c>
       <c r="BT4">
-        <v>-1.847168892326426</v>
+        <v>-1.660714285714286</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -1549,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="BW4">
-        <v>-0.04491326713602905</v>
+        <v>0.07749722089884073</v>
       </c>
       <c r="BX4">
-        <v>-0.2204712930212193</v>
+        <v>-0.2423580935871548</v>
       </c>
       <c r="BY4">
-        <v>0.1833204335568116</v>
+        <v>0.4762175155679216</v>
       </c>
       <c r="BZ4">
-        <v>4.500549290125694</v>
+        <v>3.6389638464472</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1286211811294105</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="D5">
-        <v>-0.7858201993754947</v>
+        <v>-0.7692307692307676</v>
       </c>
       <c r="E5">
-        <v>-0.5396191461413519</v>
+        <v>-0.5454545454545454</v>
       </c>
       <c r="F5">
-        <v>-0.2466381483413556</v>
+        <v>-0.188464792430753</v>
       </c>
       <c r="G5">
-        <v>-0.7735849056603771</v>
+        <v>-0.6837606837606837</v>
       </c>
       <c r="H5">
-        <v>-0.6297670378954592</v>
+        <v>-0.65</v>
       </c>
       <c r="I5">
-        <v>0.4806552470369371</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1614,16 +1614,16 @@
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>2.11214953271028</v>
+        <v>1.765625</v>
       </c>
       <c r="R5">
-        <v>4.525333061948992</v>
+        <v>4.25</v>
       </c>
       <c r="S5">
-        <v>1.244263317300641</v>
+        <v>1.1875</v>
       </c>
       <c r="T5">
-        <v>1.828111838316367</v>
+        <v>1.956521739130435</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1680,88 +1680,88 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.1567905286439953</v>
+        <v>-0.2113821138211382</v>
       </c>
       <c r="AN5">
-        <v>0.5945351541021137</v>
+        <v>0.6335263206078909</v>
       </c>
       <c r="AO5">
-        <v>0.5945677622537769</v>
+        <v>0.7041783014236627</v>
       </c>
       <c r="AP5">
-        <v>0.08928247814810601</v>
+        <v>0.01811605200129248</v>
       </c>
       <c r="AQ5">
-        <v>0.2989413724459767</v>
+        <v>0.2877372421971127</v>
       </c>
       <c r="AR5">
-        <v>-0.1983233735105738</v>
+        <v>-0.3445107403816091</v>
       </c>
       <c r="AS5">
-        <v>3.502339127642538</v>
+        <v>2.884160756501182</v>
       </c>
       <c r="AT5">
-        <v>-0.2028513200339189</v>
+        <v>-0.2583763998835025</v>
       </c>
       <c r="AU5">
-        <v>-0.6288260542677756</v>
+        <v>-0.729168185138394</v>
       </c>
       <c r="AV5">
-        <v>-0.09432079125866416</v>
+        <v>-0.221967038940264</v>
       </c>
       <c r="AW5">
-        <v>3.94530672579453</v>
+        <v>4.431404958677687</v>
       </c>
       <c r="AX5">
-        <v>0.9480540429478307</v>
+        <v>0.9448818897637795</v>
       </c>
       <c r="AY5">
-        <v>0.9405910930944039</v>
+        <v>0.7919713723385209</v>
       </c>
       <c r="AZ5">
-        <v>-0.124459277053781</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>-0.1490106866698036</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="BB5">
-        <v>0.19952616461575</v>
+        <v>0.2955752638679885</v>
       </c>
       <c r="BC5">
-        <v>0.9999999999999991</v>
+        <v>1.052631578947367</v>
       </c>
       <c r="BD5">
-        <v>0.7093513638752336</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="BE5">
-        <v>1.287522901329379</v>
+        <v>1.267761244931481</v>
       </c>
       <c r="BF5">
-        <v>-1.563636363636364</v>
+        <v>-1.490909090909091</v>
       </c>
       <c r="BG5">
-        <v>-1.905260961335602</v>
+        <v>-2.010761763206713</v>
       </c>
       <c r="BH5">
-        <v>-1.358461951143158</v>
+        <v>-0.8695652173913048</v>
       </c>
       <c r="BI5">
         <v>-0.9999999999999994</v>
       </c>
       <c r="BJ5">
-        <v>-1.105108391768376</v>
+        <v>-0.8565502938126512</v>
       </c>
       <c r="BK5">
-        <v>-0.988965873397249</v>
+        <v>-1.012181616832779</v>
       </c>
       <c r="BL5">
-        <v>-0.3397095276418359</v>
+        <v>-0.2106299212598423</v>
       </c>
       <c r="BM5">
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO5">
         <v>1</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.6647600996588859</v>
+        <v>0.5</v>
       </c>
       <c r="BS5">
-        <v>-0.8485573961855856</v>
+        <v>-0.6981887280355619</v>
       </c>
       <c r="BT5">
-        <v>0.5800578458445229</v>
+        <v>0.3780183546612125</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -1788,16 +1788,16 @@
         <v>1</v>
       </c>
       <c r="BW5">
-        <v>-0.2035886868619282</v>
+        <v>-0.1487692552008893</v>
       </c>
       <c r="BX5">
-        <v>1.539598694027871</v>
+        <v>2.123542144402451</v>
       </c>
       <c r="BY5">
-        <v>-0.2444895711834013</v>
+        <v>-0.05091514772963869</v>
       </c>
       <c r="BZ5">
-        <v>4.2171187871758</v>
+        <v>3.409793297092722</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -1811,25 +1811,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.4716109974745051</v>
+        <v>-0.4651162790697674</v>
       </c>
       <c r="D6">
-        <v>1.045935357681748</v>
+        <v>0.8717948717948725</v>
       </c>
       <c r="E6">
-        <v>1.541962396898981</v>
+        <v>1.590909090909091</v>
       </c>
       <c r="F6">
-        <v>1.447571979906523</v>
+        <v>1.420288951131966</v>
       </c>
       <c r="G6">
-        <v>1.49056603773585</v>
+        <v>1.367521367521367</v>
       </c>
       <c r="H6">
-        <v>-0.2631003712287925</v>
+        <v>-0.2833333333333333</v>
       </c>
       <c r="I6">
-        <v>-1.579295811692794</v>
+        <v>-1.450549450549451</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>1.327102803738318</v>
+        <v>1.109375</v>
       </c>
       <c r="R6">
-        <v>2.129568499740702</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>2.377596650633974</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>3.656223676632736</v>
+        <v>3.782608695652175</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1919,88 +1919,88 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>95.48543194419314</v>
+        <v>178.3252032520325</v>
       </c>
       <c r="AN6">
-        <v>-0.7820205514638308</v>
+        <v>-0.7190332326283988</v>
       </c>
       <c r="AO6">
-        <v>-0.9409792131912097</v>
+        <v>-0.8742268041237115</v>
       </c>
       <c r="AP6">
-        <v>-2.121488523011942</v>
+        <v>-2.30240273872748</v>
       </c>
       <c r="AQ6">
-        <v>1.318132465391864</v>
+        <v>1.337837837837838</v>
       </c>
       <c r="AR6">
-        <v>-1.62007541645752</v>
+        <v>-1.813953488372093</v>
       </c>
       <c r="AS6">
-        <v>6.545355091004089</v>
+        <v>5.390070921985815</v>
       </c>
       <c r="AT6">
-        <v>-1.537127267283703</v>
+        <v>-1.712062256809337</v>
       </c>
       <c r="AU6">
-        <v>9.043129599898863</v>
+        <v>12.36521739130435</v>
       </c>
       <c r="AV6">
-        <v>-2.707930367504836</v>
+        <v>-2.979591836734694</v>
       </c>
       <c r="AW6">
-        <v>50.07686622320769</v>
+        <v>56.01487603305787</v>
       </c>
       <c r="AX6">
-        <v>12.8782015656444</v>
+        <v>12.53785584494246</v>
       </c>
       <c r="AY6">
-        <v>1.427144527297124</v>
+        <v>1.201646090534979</v>
       </c>
       <c r="AZ6">
-        <v>0.05852440189784439</v>
+        <v>0.2105263157894731</v>
       </c>
       <c r="BA6">
-        <v>0.02980213733396072</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="BB6">
-        <v>-0.7919483037527651</v>
+        <v>-0.7490133856768719</v>
       </c>
       <c r="BC6">
-        <v>-0.6000000000000005</v>
+        <v>-0.6315789473684215</v>
       </c>
       <c r="BD6">
-        <v>-1.013359091250334</v>
+        <v>-1.129032258064516</v>
       </c>
       <c r="BE6">
-        <v>-1.42320154135553</v>
+        <v>-1.237838929833719</v>
       </c>
       <c r="BF6">
-        <v>1.345454545454545</v>
+        <v>1.418181818181818</v>
       </c>
       <c r="BG6">
-        <v>1.952946179029064</v>
+        <v>2.046488598054096</v>
       </c>
       <c r="BH6">
-        <v>1.358461951143158</v>
+        <v>1.217391304347827</v>
       </c>
       <c r="BI6">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ6">
-        <v>1.447360195685041</v>
+        <v>1.362933056803781</v>
       </c>
       <c r="BK6">
-        <v>1.114956461874811</v>
+        <v>1.303054087784985</v>
       </c>
       <c r="BL6">
-        <v>1.555959763696744</v>
+        <v>1.685039370078738</v>
       </c>
       <c r="BM6">
-        <v>-1.999999999999998</v>
+        <v>-1.333333333333332</v>
       </c>
       <c r="BN6">
-        <v>0.7954106961055454</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BO6">
         <v>1</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>-0.07399634379394728</v>
+        <v>-0.05565642690642658</v>
       </c>
       <c r="BS6">
-        <v>3.220292165678392</v>
+        <v>3.138024266928376</v>
       </c>
       <c r="BT6">
-        <v>-1.927559813967415</v>
+        <v>-1.728238095238095</v>
       </c>
       <c r="BU6">
         <v>1</v>
@@ -2027,16 +2027,16 @@
         <v>1</v>
       </c>
       <c r="BW6">
-        <v>6.29052137447469</v>
+        <v>9.111640463712879</v>
       </c>
       <c r="BX6">
-        <v>1.285466808581742</v>
+        <v>1.781936019258648</v>
       </c>
       <c r="BY6">
-        <v>30.24615159610192</v>
+        <v>37.51859633183806</v>
       </c>
       <c r="BZ6">
-        <v>2.159873047966203</v>
+        <v>1.746386813651634</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-1.500580446509789</v>
+        <v>-1.581395348837209</v>
       </c>
       <c r="D7">
-        <v>-1.129274366323725</v>
+        <v>-1.076923076923073</v>
       </c>
       <c r="E7">
-        <v>-0.008151518131054155</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7207657242282554</v>
+        <v>0.7301429856628329</v>
       </c>
       <c r="G7">
-        <v>-0.3207547169811321</v>
+        <v>-0.2735042735042738</v>
       </c>
       <c r="H7">
-        <v>-0.5964337045621259</v>
+        <v>-0.6166666666666667</v>
       </c>
       <c r="I7">
-        <v>-0.2059951058729731</v>
+        <v>-0.1318681318681319</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>-1.065420560747663</v>
+        <v>-0.890625</v>
       </c>
       <c r="R7">
-        <v>-0.6388705499222107</v>
+        <v>-0.6</v>
       </c>
       <c r="S7">
-        <v>-0.6224033493660257</v>
+        <v>-0.5625</v>
       </c>
       <c r="T7">
-        <v>-0.5658441404312569</v>
+        <v>-0.434782608695652</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -2158,88 +2158,88 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.06968467939733124</v>
+        <v>-0.04878048780487805</v>
       </c>
       <c r="AN7">
-        <v>-0.5114428064833553</v>
+        <v>-0.4531722054380665</v>
       </c>
       <c r="AO7">
-        <v>-0.1306075312516051</v>
+        <v>-0.04123711340206171</v>
       </c>
       <c r="AP7">
-        <v>-1.453612506508182</v>
+        <v>-1.601371810892429</v>
       </c>
       <c r="AQ7">
-        <v>-0.8197341202685724</v>
+        <v>-0.8648648648648647</v>
       </c>
       <c r="AR7">
-        <v>0.1800083796063912</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="AS7">
-        <v>-0.4191323874064024</v>
+        <v>-0.3451536643026006</v>
       </c>
       <c r="AT7">
-        <v>0.1200155898591534</v>
+        <v>0.09338521400778226</v>
       </c>
       <c r="AU7">
-        <v>-0.1330571438604245</v>
+        <v>-0.05797101449275362</v>
       </c>
       <c r="AV7">
-        <v>0.6576402321083173</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AW7">
-        <v>-0.3887657058388765</v>
+        <v>-0.4148760330578515</v>
       </c>
       <c r="AX7">
-        <v>-0.002493238771723456</v>
+        <v>0.02119927316777711</v>
       </c>
       <c r="AY7">
-        <v>0.01954992503146738</v>
+        <v>0.01646090534979417</v>
       </c>
       <c r="AZ7">
-        <v>-0.3074429560054064</v>
+        <v>-0.2105263157894731</v>
       </c>
       <c r="BA7">
-        <v>-0.2682192360056465</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="BB7">
-        <v>-0.2416799738082395</v>
+        <v>-0.1692666851794746</v>
       </c>
       <c r="BC7">
-        <v>-0.2000000000000002</v>
+        <v>-0.2105263157894738</v>
       </c>
       <c r="BD7">
-        <v>-0.5066795456251668</v>
+        <v>-0.4838709677419355</v>
       </c>
       <c r="BE7">
-        <v>-0.3835771102121696</v>
+        <v>-0.2768843173527474</v>
       </c>
       <c r="BF7">
-        <v>-0.1090909090909091</v>
+        <v>-0.03636363636363636</v>
       </c>
       <c r="BG7">
-        <v>0.4831356223907248</v>
+        <v>0.500851156892186</v>
       </c>
       <c r="BH7">
-        <v>-0.4528206503810529</v>
+        <v>-0.1739130434782611</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>-0.4340929366226857</v>
+        <v>-0.2730729346698925</v>
       </c>
       <c r="BK7">
-        <v>-0.3247784038512294</v>
+        <v>-0.2812846068660019</v>
       </c>
       <c r="BL7">
-        <v>-0.5503394489016783</v>
+        <v>-0.4212598425196847</v>
       </c>
       <c r="BM7">
-        <v>-0.5</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN7">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO7">
         <v>1</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>-0.332380049829443</v>
+        <v>-0.25</v>
       </c>
       <c r="BS7">
-        <v>0.4925084357600787</v>
+        <v>0.5662016342503537</v>
       </c>
       <c r="BT7">
-        <v>-0.1463736530953536</v>
+        <v>-0.2321428571428572</v>
       </c>
       <c r="BU7">
         <v>0</v>
@@ -2266,16 +2266,16 @@
         <v>1</v>
       </c>
       <c r="BW7">
-        <v>-0.3183410398136172</v>
+        <v>-0.312402731459425</v>
       </c>
       <c r="BX7">
-        <v>0.4807191684405493</v>
+        <v>0.7001877664384502</v>
       </c>
       <c r="BY7">
-        <v>-0.2305108600769886</v>
+        <v>-0.03369106429693566</v>
       </c>
       <c r="BZ7">
-        <v>0.01880446223050592</v>
+        <v>0.01520453477952728</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-0.04287372704313683</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-0.327881310111184</v>
+        <v>-0.3589743589743576</v>
       </c>
       <c r="E8">
-        <v>0.5676050788801017</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="F8">
-        <v>1.051250350963484</v>
+        <v>1.043957884762786</v>
       </c>
       <c r="G8">
-        <v>0.3584905660377367</v>
+        <v>0.3418803418803422</v>
       </c>
       <c r="H8">
-        <v>0.07023296210454077</v>
+        <v>0.05</v>
       </c>
       <c r="I8">
-        <v>0.06866503529099102</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2331,16 +2331,16 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>-0.05607476635514019</v>
+        <v>-0.046875</v>
       </c>
       <c r="R8">
-        <v>-0.2661960624675878</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>-0.4224033493660257</v>
+        <v>-0.375</v>
       </c>
       <c r="T8">
-        <v>-0.4352647234086592</v>
+        <v>-0.3043478260869564</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -2397,88 +2397,88 @@
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-0.06968467939733124</v>
+        <v>-0.04878048780487805</v>
       </c>
       <c r="AN8">
-        <v>0.5524196908262413</v>
+        <v>0.59214501510574</v>
       </c>
       <c r="AO8">
-        <v>0.3267309427143102</v>
+        <v>0.4288659793814433</v>
       </c>
       <c r="AP8">
-        <v>0.5893023675033168</v>
+        <v>0.5429580860147868</v>
       </c>
       <c r="AQ8">
-        <v>1.029586055057327</v>
+        <v>1.040540540540541</v>
       </c>
       <c r="AR8">
-        <v>-0.5400251388191735</v>
+        <v>-0.6976744186046512</v>
       </c>
       <c r="AS8">
-        <v>-0.6717601277609458</v>
+        <v>-0.553191489361702</v>
       </c>
       <c r="AT8">
-        <v>1.134301304144868</v>
+        <v>1.198443579766537</v>
       </c>
       <c r="AU8">
-        <v>0.526360848924891</v>
+        <v>0.8347826086956525</v>
       </c>
       <c r="AV8">
-        <v>-0.5029013539651839</v>
+        <v>-0.6530612244897959</v>
       </c>
       <c r="AW8">
-        <v>-0.4892830746489282</v>
+        <v>-0.5272727272727274</v>
       </c>
       <c r="AX8">
-        <v>-0.2923322459845711</v>
+        <v>-0.2604482132041187</v>
       </c>
       <c r="AY8">
-        <v>-0.6255976010069585</v>
+        <v>-0.5267489711934155</v>
       </c>
       <c r="AZ8">
-        <v>0.4244917598010968</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="BA8">
-        <v>0.2980213733396072</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="BB8">
-        <v>0.04089024967678707</v>
+        <v>0.1284410799408103</v>
       </c>
       <c r="BC8">
-        <v>0.5999999999999996</v>
+        <v>0.6315789473684206</v>
       </c>
       <c r="BD8">
-        <v>0.6586834093127168</v>
+        <v>1</v>
       </c>
       <c r="BE8">
-        <v>0.5834386305021301</v>
+        <v>0.6169560047327274</v>
       </c>
       <c r="BF8">
-        <v>-0.4</v>
+        <v>-0.3272727272727273</v>
       </c>
       <c r="BG8">
-        <v>-0.9139526000864141</v>
+        <v>-0.9683122366582292</v>
       </c>
       <c r="BH8">
-        <v>0.4528206503810519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BI8">
         <v>-0.9999999999999994</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>0.1043899066712757</v>
       </c>
       <c r="BK8">
-        <v>-0.163763259718861</v>
+        <v>-0.104097452934662</v>
       </c>
       <c r="BL8">
-        <v>0.9240699999172163</v>
+        <v>1.05314960629921</v>
       </c>
       <c r="BM8">
-        <v>-1.499999999999998</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN8">
-        <v>-0.5467422839491876</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BO8">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="BR8">
-        <v>0.332380049829443</v>
+        <v>0.25</v>
       </c>
       <c r="BS8">
-        <v>-0.2796110428669297</v>
+        <v>-0.1617718955001011</v>
       </c>
       <c r="BT8">
-        <v>0.3638649186739681</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="BU8">
         <v>1</v>
@@ -2505,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="BW8">
-        <v>-0.34604910019248</v>
+        <v>-0.3519136096553914</v>
       </c>
       <c r="BX8">
-        <v>-0.4435154027901026</v>
+        <v>-0.5421757805355675</v>
       </c>
       <c r="BY8">
-        <v>-0.2913105727793858</v>
+        <v>-0.108606363447088</v>
       </c>
       <c r="BZ8">
-        <v>-1.270715754159337</v>
+        <v>-1.027449848986671</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -2528,25 +2528,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-1.329085538337242</v>
+        <v>-1.395348837209302</v>
       </c>
       <c r="D9">
-        <v>0.3590270237852819</v>
+        <v>0.2564102564102574</v>
       </c>
       <c r="E9">
-        <v>0.2132933268732365</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="F9">
-        <v>0.1959307831494313</v>
+        <v>0.2317808509220448</v>
       </c>
       <c r="G9">
-        <v>0.1698113207547168</v>
+        <v>0.1709401709401703</v>
       </c>
       <c r="H9">
-        <v>-0.2631003712287925</v>
+        <v>-0.2833333333333333</v>
       </c>
       <c r="I9">
-        <v>-0.9841988391708713</v>
+        <v>-0.8791208791208791</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2570,16 +2570,16 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>-0.9906542056074766</v>
+        <v>-0.828125</v>
       </c>
       <c r="R9">
-        <v>-0.6388705499222107</v>
+        <v>-0.6</v>
       </c>
       <c r="S9">
-        <v>-0.4890700160326923</v>
+        <v>-0.4375</v>
       </c>
       <c r="T9">
-        <v>-0.4787911957495251</v>
+        <v>-0.3478260869565217</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2636,88 +2636,88 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-0.2787387175893249</v>
+        <v>-0.4390243902439024</v>
       </c>
       <c r="AN9">
-        <v>0.6200641270713604</v>
+        <v>0.6586102719033232</v>
       </c>
       <c r="AO9">
-        <v>0.888374682672452</v>
+        <v>1.006185567010309</v>
       </c>
       <c r="AP9">
-        <v>-0.07857364900044236</v>
+        <v>-0.1580728418202644</v>
       </c>
       <c r="AQ9">
-        <v>-0.1770625699780116</v>
+        <v>-0.2027027027027026</v>
       </c>
       <c r="AR9">
-        <v>0.4050188541143801</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="AS9">
-        <v>-0.2641108194615684</v>
+        <v>-0.2174940898345153</v>
       </c>
       <c r="AT9">
-        <v>0.2485870184305818</v>
+        <v>0.2334630350194551</v>
       </c>
       <c r="AU9">
-        <v>0.08960347708007169</v>
+        <v>0.2434782608695654</v>
       </c>
       <c r="AV9">
-        <v>0.3481624758220503</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="AW9">
-        <v>0.9002217294900222</v>
+        <v>1.026446280991736</v>
       </c>
       <c r="AX9">
-        <v>0.6363991964824031</v>
+        <v>0.6420351302241066</v>
       </c>
       <c r="AY9">
-        <v>1.15344557685658</v>
+        <v>0.9711934156378599</v>
       </c>
       <c r="AZ9">
-        <v>0.2415080808494714</v>
+        <v>0.4210526315789481</v>
       </c>
       <c r="BA9">
-        <v>0.5960427466792144</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="BB9">
-        <v>0.49938673553696</v>
+        <v>0.6114996359254591</v>
       </c>
       <c r="BC9">
-        <v>0.3999999999999995</v>
+        <v>0.4210526315789467</v>
       </c>
       <c r="BD9">
-        <v>0.7093513638752336</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="BE9">
-        <v>0.7315539191822533</v>
+        <v>0.7538632046525877</v>
       </c>
       <c r="BF9">
-        <v>0.2545454545454545</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="BG9">
-        <v>-0.5162753899057787</v>
+        <v>-0.5501190329314657</v>
       </c>
       <c r="BH9">
-        <v>0.4528206503810519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BI9">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ9">
-        <v>0.5676599940450506</v>
+        <v>0.5979951607328035</v>
       </c>
       <c r="BK9">
-        <v>0.6453378395462899</v>
+        <v>0.786267995570321</v>
       </c>
       <c r="BL9">
-        <v>-0.971599291421362</v>
+        <v>-0.8425196850393685</v>
       </c>
       <c r="BM9">
-        <v>-1</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BN9">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO9">
         <v>0</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="BR9">
-        <v>0.6647600996588859</v>
+        <v>0.5</v>
       </c>
       <c r="BS9">
-        <v>0.5782994889408575</v>
+        <v>0.6470875820004043</v>
       </c>
       <c r="BT9">
-        <v>-0.2314134150569072</v>
+        <v>-0.3035714285714285</v>
       </c>
       <c r="BU9">
         <v>1</v>
@@ -2744,16 +2744,16 @@
         <v>1</v>
       </c>
       <c r="BW9">
-        <v>-0.300967818675745</v>
+        <v>-0.2876290296966809</v>
       </c>
       <c r="BX9">
-        <v>0.2653064247939872</v>
+        <v>0.4106282232330919</v>
       </c>
       <c r="BY9">
-        <v>-0.3694684652073285</v>
+        <v>-0.204909810156531</v>
       </c>
       <c r="BZ9">
-        <v>0.2340345004080813</v>
+        <v>0.1892309206955836</v>
       </c>
       <c r="CA9">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1.071843176078421</v>
+        <v>1.209302325581395</v>
       </c>
       <c r="D10">
-        <v>-1.243759088639803</v>
+        <v>-1.179487179487175</v>
       </c>
       <c r="E10">
-        <v>-1.469687495159373</v>
+        <v>-1.5</v>
       </c>
       <c r="F10">
-        <v>-1.415851789206942</v>
+        <v>-1.298703003385365</v>
       </c>
       <c r="G10">
-        <v>-1.867924528301887</v>
+        <v>-1.675213675213675</v>
       </c>
       <c r="H10">
-        <v>0.07023296210454077</v>
+        <v>0.05</v>
       </c>
       <c r="I10">
-        <v>-0.5264319372309312</v>
+        <v>-0.4395604395604396</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2809,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.1682242990654206</v>
+        <v>0.140625</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.9109299839673076</v>
+        <v>0.875</v>
       </c>
       <c r="T10">
-        <v>0.9140559191581837</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2875,88 +2875,88 @@
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.007443351679519998</v>
+        <v>0.09519541476642893</v>
       </c>
       <c r="AN10">
-        <v>-0.9050104355458652</v>
+        <v>-0.8398791540785501</v>
       </c>
       <c r="AO10">
-        <v>-1.077378407181044</v>
+        <v>-1.014432989690722</v>
       </c>
       <c r="AP10">
-        <v>0.2750077715015483</v>
+        <v>0.2130611787982926</v>
       </c>
       <c r="AQ10">
-        <v>-0.5180719640097378</v>
+        <v>-0.5540540540540539</v>
       </c>
       <c r="AR10">
-        <v>-0.9450439929335536</v>
+        <v>-1.116279069767442</v>
       </c>
       <c r="AS10">
-        <v>0.02870769776756169</v>
+        <v>0.02364066193853419</v>
       </c>
       <c r="AT10">
-        <v>-1.008555838712275</v>
+        <v>-1.136186770428014</v>
       </c>
       <c r="AU10">
-        <v>-0.6297616059584539</v>
+        <v>-0.7304347826086953</v>
       </c>
       <c r="AV10">
-        <v>-0.3868471953578337</v>
+        <v>-0.5306122448979592</v>
       </c>
       <c r="AW10">
-        <v>-0.3710273466371026</v>
+        <v>-0.3950413223140498</v>
       </c>
       <c r="AX10">
-        <v>-0.2985653429138796</v>
+        <v>-0.2665051483949122</v>
       </c>
       <c r="AY10">
-        <v>1.15344557685658</v>
+        <v>0.9711934156378599</v>
       </c>
       <c r="AZ10">
-        <v>-1.405345029715164</v>
+        <v>-1.473684210526317</v>
       </c>
       <c r="BA10">
-        <v>-1.281491905360311</v>
+        <v>-1.301587301587302</v>
       </c>
       <c r="BB10">
-        <v>-0.6981850229030807</v>
+        <v>-0.6502271213358086</v>
       </c>
       <c r="BC10">
-        <v>-1.4</v>
+        <v>-1.473684210526316</v>
       </c>
       <c r="BD10">
-        <v>-1.570706591438017</v>
+        <v>-1.838709677419355</v>
       </c>
       <c r="BE10">
-        <v>-1.141684403268145</v>
+        <v>-0.9776245829661711</v>
       </c>
       <c r="BF10">
-        <v>-1.054545454545454</v>
+        <v>-0.9818181818181818</v>
       </c>
       <c r="BG10">
-        <v>1.447205875912591</v>
+        <v>1.514657373634787</v>
       </c>
       <c r="BH10">
-        <v>0.9056413007621048</v>
+        <v>0.8695652173913048</v>
       </c>
       <c r="BI10">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ10">
-        <v>-0.3180168033865831</v>
+        <v>-0.1721396474248184</v>
       </c>
       <c r="BK10">
-        <v>1.007621913844119</v>
+        <v>1.184939091915836</v>
       </c>
       <c r="BL10">
-        <v>-1.814118976460732</v>
+        <v>-1.685039370078738</v>
       </c>
       <c r="BM10">
-        <v>-3.999999999999996</v>
+        <v>-2.666666666666664</v>
       </c>
       <c r="BN10">
-        <v>-1.08360347597108</v>
+        <v>-1.333333333333332</v>
       </c>
       <c r="BO10">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>-0.332380049829443</v>
+        <v>-0.25</v>
       </c>
       <c r="BS10">
-        <v>-1.394894734217053</v>
+        <v>-1.213289216250758</v>
       </c>
       <c r="BT10">
-        <v>0.7040239665201826</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="BU10">
         <v>1</v>
@@ -2983,16 +2983,16 @@
         <v>1</v>
       </c>
       <c r="BW10">
-        <v>-0.3957632406793142</v>
+        <v>-0.422804510084167</v>
       </c>
       <c r="BX10">
-        <v>-0.2188726826787587</v>
+        <v>-0.2402092287025139</v>
       </c>
       <c r="BY10">
-        <v>-0.4025565352328372</v>
+        <v>-0.2456797834686655</v>
       </c>
       <c r="BZ10">
-        <v>-1.099683160035511</v>
+        <v>-0.8891597456105788</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -3006,25 +3006,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1286211811294105</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="D11">
-        <v>0.8169659130495925</v>
+        <v>0.6666666666666674</v>
       </c>
       <c r="E11">
-        <v>0.5233161098792435</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F11">
-        <v>0.3480183733350992</v>
+        <v>0.3761971048336305</v>
       </c>
       <c r="G11">
-        <v>0.5849056603773597</v>
+        <v>0.5470085470085475</v>
       </c>
       <c r="H11">
-        <v>-0.2297670378954592</v>
+        <v>-0.25</v>
       </c>
       <c r="I11">
-        <v>0.3433251764549551</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.01869158878504673</v>
+        <v>0.015625</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.755736682699359</v>
+        <v>-0.6875</v>
       </c>
       <c r="T11">
-        <v>-0.6528970851129887</v>
+        <v>-0.5217391304347825</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -3114,88 +3114,88 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>10.88823115583301</v>
+        <v>20.40650406504065</v>
       </c>
       <c r="AN11">
-        <v>-0.09942669480854037</v>
+        <v>-0.04833836858006047</v>
       </c>
       <c r="AO11">
-        <v>-0.03432574725878106</v>
+        <v>0.05773195876288647</v>
       </c>
       <c r="AP11">
-        <v>-0.07857364900044236</v>
+        <v>-0.1580728418202644</v>
       </c>
       <c r="AQ11">
-        <v>-0.2426412995994975</v>
+        <v>-0.2702702702702702</v>
       </c>
       <c r="AR11">
-        <v>0.1800083796063912</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="AS11">
-        <v>-0.241144661247519</v>
+        <v>-0.1985815602836879</v>
       </c>
       <c r="AT11">
-        <v>0.577158447002011</v>
+        <v>0.5914396887159535</v>
       </c>
       <c r="AU11">
-        <v>-0.04313650848060842</v>
+        <v>0.06376811594202948</v>
       </c>
       <c r="AV11">
-        <v>0.03868471953578338</v>
+        <v>-0.08163265306122448</v>
       </c>
       <c r="AW11">
-        <v>-0.4774575018477457</v>
+        <v>-0.5140495867768597</v>
       </c>
       <c r="AX11">
-        <v>-0.2150418440611451</v>
+        <v>-0.1853422168382798</v>
       </c>
       <c r="AY11">
-        <v>0.7624470762272307</v>
+        <v>0.6419753086419752</v>
       </c>
       <c r="AZ11">
-        <v>-0.124459277053781</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>-0.08940641200188215</v>
+        <v>-0.03174603174603174</v>
       </c>
       <c r="BB11">
-        <v>-0.5143354526095816</v>
+        <v>-0.4565285638043117</v>
       </c>
       <c r="BC11">
-        <v>-0.2000000000000002</v>
+        <v>-0.2105263157894738</v>
       </c>
       <c r="BD11">
-        <v>-0.5066795456251668</v>
+        <v>-0.4838709677419355</v>
       </c>
       <c r="BE11">
-        <v>-0.70444884821938</v>
+        <v>-0.5734752471308254</v>
       </c>
       <c r="BF11">
-        <v>0.3272727272727273</v>
+        <v>0.4</v>
       </c>
       <c r="BG11">
-        <v>0.7609656666333384</v>
+        <v>0.7930143317459625</v>
       </c>
       <c r="BH11">
-        <v>1.358461951143158</v>
+        <v>1.217391304347827</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0.5425366665775109</v>
+        <v>0.5761493259592122</v>
       </c>
       <c r="BK11">
-        <v>0.3518877393650482</v>
+        <v>0.4633444075304537</v>
       </c>
       <c r="BL11">
-        <v>-0.7609693701615206</v>
+        <v>-0.631889763779527</v>
       </c>
       <c r="BM11">
-        <v>-0.5</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN11">
-        <v>-0.2783116879382408</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO11">
         <v>1</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="BR11">
-        <v>-0.332380049829443</v>
+        <v>-0.25</v>
       </c>
       <c r="BS11">
-        <v>0.3638218559889107</v>
+        <v>0.4448727126252779</v>
       </c>
       <c r="BT11">
-        <v>-0.273933296037684</v>
+        <v>-0.3392857142857143</v>
       </c>
       <c r="BU11">
         <v>1</v>
@@ -3222,16 +3222,16 @@
         <v>1</v>
       </c>
       <c r="BW11">
-        <v>9.337517081732271</v>
+        <v>13.45656661902493</v>
       </c>
       <c r="BX11">
-        <v>-0.2284643447335221</v>
+        <v>-0.2531024180103592</v>
       </c>
       <c r="BY11">
-        <v>0.01127475840096295</v>
+        <v>0.2642287963961917</v>
       </c>
       <c r="BZ11">
-        <v>-0.6499143806668987</v>
+        <v>-0.5254947301036926</v>
       </c>
       <c r="CA11">
         <v>1</v>
@@ -3245,25 +3245,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3001160893019578</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="D12">
-        <v>1.618358969262136</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="E12">
-        <v>0.7890499238843923</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="F12">
-        <v>0.2590123891186887</v>
+        <v>0.2916806048315216</v>
       </c>
       <c r="G12">
-        <v>0.9622641509433961</v>
+        <v>0.8888888888888882</v>
       </c>
       <c r="H12">
-        <v>-1.263100371228792</v>
+        <v>-1.283333333333333</v>
       </c>
       <c r="I12">
-        <v>1.99128602343874</v>
+        <v>1.978021978021978</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -3287,16 +3287,16 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>1.177570093457944</v>
+        <v>0.984375</v>
       </c>
       <c r="R12">
-        <v>1.597176374805527</v>
+        <v>1.5</v>
       </c>
       <c r="S12">
-        <v>1.244263317300641</v>
+        <v>1.1875</v>
       </c>
       <c r="T12">
-        <v>1.392847114907708</v>
+        <v>1.521739130434783</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3353,88 +3353,88 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>1.23690305930263</v>
+        <v>2.390243902439024</v>
       </c>
       <c r="AN12">
-        <v>-0.7635720688515257</v>
+        <v>-0.7009063444108763</v>
       </c>
       <c r="AO12">
-        <v>-0.8286504651995813</v>
+        <v>-0.7587628865979381</v>
       </c>
       <c r="AP12">
-        <v>-1.767907102509952</v>
+        <v>-1.931268718108924</v>
       </c>
       <c r="AQ12">
-        <v>0.7541553906470865</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="AR12">
-        <v>-0.4950230439175757</v>
+        <v>-0.6511627906976745</v>
       </c>
       <c r="AS12">
-        <v>2.23920042586982</v>
+        <v>1.843971631205674</v>
       </c>
       <c r="AT12">
-        <v>-0.9371272672837035</v>
+        <v>-1.058365758754863</v>
       </c>
       <c r="AU12">
-        <v>1.185778841710206</v>
+        <v>1.727536231884059</v>
       </c>
       <c r="AV12">
-        <v>-1.044487427466151</v>
+        <v>-1.224489795918367</v>
       </c>
       <c r="AW12">
-        <v>2.153732446415373</v>
+        <v>2.42809917355372</v>
       </c>
       <c r="AX12">
-        <v>2.708903925477497</v>
+        <v>2.655966081162932</v>
       </c>
       <c r="AY12">
-        <v>-0.136849475220272</v>
+        <v>-0.1152263374485595</v>
       </c>
       <c r="AZ12">
-        <v>0.6074754387527238</v>
+        <v>0.8421052631578961</v>
       </c>
       <c r="BA12">
-        <v>0.5364384720112929</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="BB12">
-        <v>-0.02649491773091322</v>
+        <v>0.05744602836112481</v>
       </c>
       <c r="BC12">
-        <v>0.9999999999999991</v>
+        <v>1.052631578947367</v>
       </c>
       <c r="BD12">
-        <v>0.7093513638752336</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="BE12">
-        <v>0.3595959098873617</v>
+        <v>0.4100517723952042</v>
       </c>
       <c r="BF12">
-        <v>0.1090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="BG12">
-        <v>-0.6092684664610806</v>
+        <v>-0.6479095816818088</v>
       </c>
       <c r="BH12">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI12">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ12">
-        <v>0.1727706529347159</v>
+        <v>0.2546215645841785</v>
       </c>
       <c r="BK12">
-        <v>0.02306015308471444</v>
+        <v>0.101490095868773</v>
       </c>
       <c r="BL12">
-        <v>0.2921802361376902</v>
+        <v>0.4212598425196837</v>
       </c>
       <c r="BM12">
         <v>0</v>
       </c>
       <c r="BN12">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO12">
         <v>1</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="BR12">
-        <v>-0.1312176108885662</v>
+        <v>-0.09869546243516947</v>
       </c>
       <c r="BS12">
-        <v>-0.7460104713626446</v>
+        <v>-0.6015049259882973</v>
       </c>
       <c r="BT12">
-        <v>0.7882285295131065</v>
+        <v>0.5528699088609805</v>
       </c>
       <c r="BU12">
         <v>1</v>
@@ -3461,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="BW12">
-        <v>0.838002740434808</v>
+        <v>1.336509448943942</v>
       </c>
       <c r="BX12">
-        <v>1.113968690347744</v>
+        <v>1.551406868866818</v>
       </c>
       <c r="BY12">
-        <v>0.1658086416213056</v>
+        <v>0.4546400923665134</v>
       </c>
       <c r="BZ12">
-        <v>0.9045247839489226</v>
+        <v>0.7313625015122689</v>
       </c>
       <c r="CA12">
         <v>0</v>
@@ -3484,25 +3484,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.8146008138195997</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="D13">
-        <v>0.3590270237852819</v>
+        <v>0.2564102564102574</v>
       </c>
       <c r="E13">
-        <v>-0.008151518131054155</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.08681948720232165</v>
+        <v>-0.03670742472778699</v>
       </c>
       <c r="G13">
-        <v>-0.01886792452830149</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-0.2297670378954592</v>
+        <v>-0.25</v>
       </c>
       <c r="I13">
-        <v>0.4348785568429431</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -3526,16 +3526,16 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.8411214953271028</v>
+        <v>0.703125</v>
       </c>
       <c r="R13">
-        <v>1.038164643623593</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="S13">
-        <v>-0.02240334936602567</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>-0.5658441404312569</v>
+        <v>-0.434782608695652</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -3592,88 +3592,88 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>-0.1829222834179945</v>
+        <v>-0.2601626016260163</v>
       </c>
       <c r="AN13">
-        <v>0.237270331990876</v>
+        <v>0.2824893475104959</v>
       </c>
       <c r="AO13">
-        <v>0.108016236077038</v>
+        <v>0.2040468008509234</v>
       </c>
       <c r="AP13">
-        <v>-0.07781768701906996</v>
+        <v>-0.15727935213638</v>
       </c>
       <c r="AQ13">
-        <v>-0.01041337926160665</v>
+        <v>-0.03099946113637055</v>
       </c>
       <c r="AR13">
-        <v>0.3341736744906296</v>
+        <v>0.2058481842940542</v>
       </c>
       <c r="AS13">
-        <v>0.07935347000515798</v>
+        <v>0.06534723101903764</v>
       </c>
       <c r="AT13">
-        <v>0.2988947274593181</v>
+        <v>0.2882729903815023</v>
       </c>
       <c r="AU13">
-        <v>0.04748564432070649</v>
+        <v>0.1864569963481889</v>
       </c>
       <c r="AV13">
-        <v>0.01802743457903823</v>
+        <v>-0.1034281965768107</v>
       </c>
       <c r="AW13">
-        <v>-0.08642537431233593</v>
+        <v>-0.07680457144181056</v>
       </c>
       <c r="AX13">
-        <v>-0.02807524727725465</v>
+        <v>-0.003659728597420564</v>
       </c>
       <c r="AY13">
-        <v>0.7437710085590488</v>
+        <v>0.6262501853129872</v>
       </c>
       <c r="AZ13">
-        <v>0.05852440189784439</v>
+        <v>0.2105263157894731</v>
       </c>
       <c r="BA13">
-        <v>0.781505704756643</v>
+        <v>0.8959727891156468</v>
       </c>
       <c r="BB13">
-        <v>0.5930798753031811</v>
+        <v>0.7102120016619792</v>
       </c>
       <c r="BC13">
-        <v>2.600000000000001</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="BD13">
-        <v>1.015617819622155</v>
+        <v>1.454488969811551</v>
       </c>
       <c r="BE13">
-        <v>0.8282169143935306</v>
+        <v>0.8432115773166906</v>
       </c>
       <c r="BF13">
-        <v>0.9592355765446675</v>
+        <v>1.03196284927194</v>
       </c>
       <c r="BG13">
-        <v>-0.8765106295125434</v>
+        <v>-0.928938651179147</v>
       </c>
       <c r="BH13">
-        <v>0.4528206503810519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BI13">
         <v>0.9999999999999994</v>
       </c>
       <c r="BJ13">
-        <v>0.6726055391626234</v>
+        <v>0.6892499135845148</v>
       </c>
       <c r="BK13">
-        <v>0.9069874487613885</v>
+        <v>1.074197120708748</v>
       </c>
       <c r="BL13">
-        <v>0.2921802361376902</v>
+        <v>0.4212598425196837</v>
       </c>
       <c r="BM13">
-        <v>1.999999999999998</v>
+        <v>1.333333333333332</v>
       </c>
       <c r="BN13">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO13">
         <v>1</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="BR13">
-        <v>-0.6647600996588859</v>
+        <v>-0.5</v>
       </c>
       <c r="BS13">
-        <v>-0.2141422300069332</v>
+        <v>-0.1000462635149938</v>
       </c>
       <c r="BT13">
-        <v>0.01538174395834462</v>
+        <v>-0.09627750820607923</v>
       </c>
       <c r="BU13">
         <v>0</v>
@@ -3700,16 +3700,16 @@
         <v>1</v>
       </c>
       <c r="BW13">
-        <v>-0.2729924779716842</v>
+        <v>-0.2477370176274416</v>
       </c>
       <c r="BX13">
-        <v>-0.2264481993346679</v>
+        <v>-0.2503922991434565</v>
       </c>
       <c r="BY13">
-        <v>-0.312847004615859</v>
+        <v>-0.1351428084719778</v>
       </c>
       <c r="BZ13">
-        <v>0.275158510703134</v>
+        <v>0.2224821478320027</v>
       </c>
       <c r="CA13">
         <v>0</v>
@@ -3723,25 +3723,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.1286211811294105</v>
+        <v>-0.09302325581395349</v>
       </c>
       <c r="D14">
-        <v>0.3590270237852819</v>
+        <v>0.2564102564102574</v>
       </c>
       <c r="E14">
-        <v>-0.6724860531439263</v>
+        <v>-0.6818181818181818</v>
       </c>
       <c r="F14">
-        <v>-0.9350702982575798</v>
+        <v>-0.8421722516772818</v>
       </c>
       <c r="G14">
-        <v>-0.6981132075471694</v>
+        <v>-0.6153846153846152</v>
       </c>
       <c r="H14">
-        <v>0.8035662954378741</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="I14">
-        <v>-0.5264319372309312</v>
+        <v>-0.4395604395604396</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3765,16 +3765,16 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>-1.214953271028037</v>
+        <v>-1.015625</v>
       </c>
       <c r="R14">
-        <v>-0.6921097624157283</v>
+        <v>-0.65</v>
       </c>
       <c r="S14">
-        <v>0.7109299839673077</v>
+        <v>0.6875</v>
       </c>
       <c r="T14">
-        <v>0.4787911957495247</v>
+        <v>0.6086956521739132</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3831,88 +3831,88 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>-0.04355292462333202</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>-0.03793175276752342</v>
+        <v>0.01208459214501485</v>
       </c>
       <c r="AO14">
-        <v>0.1261438927292596</v>
+        <v>0.2226804123711341</v>
       </c>
       <c r="AP14">
-        <v>0.3928682450022109</v>
+        <v>0.3367725190044773</v>
       </c>
       <c r="AQ14">
-        <v>-0.8590813580414639</v>
+        <v>-0.9054054054054054</v>
       </c>
       <c r="AR14">
-        <v>-0.2250104745079889</v>
+        <v>-0.3720930232558139</v>
       </c>
       <c r="AS14">
-        <v>0.5167385598161119</v>
+        <v>0.4255319148936167</v>
       </c>
       <c r="AT14">
-        <v>-0.2514129815694182</v>
+        <v>-0.3112840466926068</v>
       </c>
       <c r="AU14">
-        <v>0.8132504951366841</v>
+        <v>1.223188405797102</v>
       </c>
       <c r="AV14">
-        <v>-0.6924564796905226</v>
+        <v>-0.8530612244897962</v>
       </c>
       <c r="AW14">
-        <v>-0.5365853658536585</v>
+        <v>-0.5801652892561986</v>
       </c>
       <c r="AX14">
-        <v>-0.3534165958917949</v>
+        <v>-0.3198061780738946</v>
       </c>
       <c r="AY14">
-        <v>-0.8992965514475028</v>
+        <v>-0.7572016460905346</v>
       </c>
       <c r="AZ14">
-        <v>-0.124459277053781</v>
+        <v>0</v>
       </c>
       <c r="BA14">
-        <v>-0.08940641200188215</v>
+        <v>-0.03174603174603174</v>
       </c>
       <c r="BB14">
-        <v>0.2265465677097485</v>
+        <v>0.3240431743171225</v>
       </c>
       <c r="BC14">
-        <v>-0.4000000000000004</v>
+        <v>-0.4210526315789477</v>
       </c>
       <c r="BD14">
-        <v>-0.6586834093127168</v>
+        <v>-0.6774193548387096</v>
       </c>
       <c r="BE14">
-        <v>-0.4076953815085358</v>
+        <v>-0.2991775257009018</v>
       </c>
       <c r="BF14">
-        <v>0.5454545454545454</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="BG14">
-        <v>1.077691917069916</v>
+        <v>1.126080351079266</v>
       </c>
       <c r="BH14">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>-0.1176662172530354</v>
+        <v>0.002073971655721177</v>
       </c>
       <c r="BK14">
-        <v>0.3434344442980992</v>
+        <v>0.4540420819490587</v>
       </c>
       <c r="BL14">
-        <v>-0.7609693701615206</v>
+        <v>-0.631889763779527</v>
       </c>
       <c r="BM14">
-        <v>-1.499999999999998</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN14">
-        <v>-0.2783116879382408</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO14">
         <v>1</v>
@@ -3924,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="BR14">
-        <v>-0.6647600996588859</v>
+        <v>-0.5</v>
       </c>
       <c r="BS14">
-        <v>0.8356726484831937</v>
+        <v>0.8897454252505559</v>
       </c>
       <c r="BT14">
-        <v>-0.6140923438838986</v>
+        <v>-0.625</v>
       </c>
       <c r="BU14">
         <v>1</v>
@@ -3939,16 +3939,16 @@
         <v>1</v>
       </c>
       <c r="BW14">
-        <v>-0.3169155447458944</v>
+        <v>-0.3103700174686358</v>
       </c>
       <c r="BX14">
-        <v>0.9712927172831375</v>
+        <v>1.359620677912619</v>
       </c>
       <c r="BY14">
-        <v>-0.3800677076946085</v>
+        <v>-0.2179698294626465</v>
       </c>
       <c r="BZ14">
-        <v>4.048831926049301</v>
+        <v>3.273723283413501</v>
       </c>
       <c r="CA14">
         <v>1</v>
@@ -3962,25 +3962,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1286211811294105</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="D15">
-        <v>-0.4423660324272617</v>
+        <v>-0.4615384615384601</v>
       </c>
       <c r="E15">
-        <v>-0.4510412081396356</v>
+        <v>-0.4545454545454545</v>
       </c>
       <c r="F15">
-        <v>-0.2893140603220301</v>
+        <v>-0.2289881206851207</v>
       </c>
       <c r="G15">
-        <v>-0.6226415094339618</v>
+        <v>-0.5470085470085467</v>
       </c>
       <c r="H15">
-        <v>-1.563100371228793</v>
+        <v>-1.583333333333333</v>
       </c>
       <c r="I15">
-        <v>-1.075752219558859</v>
+        <v>-0.967032967032967</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4004,16 +4004,16 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>-0.2803738317757009</v>
+        <v>-0.234375</v>
       </c>
       <c r="R15">
-        <v>0.1330980312337939</v>
+        <v>0.125</v>
       </c>
       <c r="S15">
-        <v>2.310929983967307</v>
+        <v>2.1875</v>
       </c>
       <c r="T15">
-        <v>3.264485425564942</v>
+        <v>3.391304347826087</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -4070,88 +4070,88 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>-0.2003434532673273</v>
+        <v>-0.2926829268292683</v>
       </c>
       <c r="AN15">
-        <v>0.1633173931915201</v>
+        <v>0.2098255581276725</v>
       </c>
       <c r="AO15">
-        <v>0.004861384575299462</v>
+        <v>0.09801282932417051</v>
       </c>
       <c r="AP15">
-        <v>0.1955342902638717</v>
+        <v>0.1296424500019182</v>
       </c>
       <c r="AQ15">
-        <v>0.7286787589058166</v>
+        <v>0.7305074828457188</v>
       </c>
       <c r="AR15">
-        <v>-0.1350062847047934</v>
+        <v>-0.2790697674418605</v>
       </c>
       <c r="AS15">
-        <v>5.339631784766492</v>
+        <v>4.397163120567375</v>
       </c>
       <c r="AT15">
-        <v>-0.2942701244265606</v>
+        <v>-0.3579766536964974</v>
       </c>
       <c r="AU15">
-        <v>2.907116718980964</v>
+        <v>4.057971014492754</v>
       </c>
       <c r="AV15">
-        <v>-1.818181818181819</v>
+        <v>-2.040816326530612</v>
       </c>
       <c r="AW15">
-        <v>2.975609756097561</v>
+        <v>3.347107438016529</v>
       </c>
       <c r="AX15">
-        <v>1.100141608022959</v>
+        <v>1.09267110841914</v>
       </c>
       <c r="AY15">
-        <v>-0.8601967013845679</v>
+        <v>-0.7242798353909463</v>
       </c>
       <c r="AZ15">
-        <v>1.156426475607602</v>
+        <v>1.473684210526317</v>
       </c>
       <c r="BA15">
-        <v>0.8046577080169394</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="BB15">
-        <v>1.33929072738373</v>
+        <v>1.496398041866515</v>
       </c>
       <c r="BC15">
-        <v>3.399999999999999</v>
+        <v>3.578947368421051</v>
       </c>
       <c r="BD15">
-        <v>2.736069546375901</v>
+        <v>3.645161290322581</v>
       </c>
       <c r="BE15">
-        <v>3.599138705713842</v>
+        <v>3.404453884084018</v>
       </c>
       <c r="BF15">
-        <v>-2.145454545454546</v>
+        <v>-2.072727272727273</v>
       </c>
       <c r="BG15">
-        <v>-3.58874150602901</v>
+        <v>-3.781092333764752</v>
       </c>
       <c r="BH15">
-        <v>-1.358461951143158</v>
+        <v>-0.8695652173913048</v>
       </c>
       <c r="BI15">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ15">
-        <v>0.2162514263028769</v>
+        <v>0.29243000345662</v>
       </c>
       <c r="BK15">
-        <v>0.7540230618356381</v>
+        <v>0.9058693244739751</v>
       </c>
       <c r="BL15">
-        <v>1.345329842436901</v>
+        <v>1.474409448818895</v>
       </c>
       <c r="BM15">
-        <v>-2.499999999999998</v>
+        <v>-1.666666666666665</v>
       </c>
       <c r="BN15">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO15">
         <v>0</v>
@@ -4163,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>5.318080797271088</v>
+        <v>4</v>
       </c>
       <c r="BS15">
-        <v>-0.04321869293564144</v>
+        <v>0.0611047164090976</v>
       </c>
       <c r="BT15">
-        <v>-0.03973787178616504</v>
+        <v>-0.1425748556998561</v>
       </c>
       <c r="BU15">
         <v>1</v>
@@ -4178,16 +4178,16 @@
         <v>1</v>
       </c>
       <c r="BW15">
-        <v>-0.09391466008900184</v>
+        <v>0.007622677465459761</v>
       </c>
       <c r="BX15">
-        <v>0.5602914047545916</v>
+        <v>0.8071494067243526</v>
       </c>
       <c r="BY15">
-        <v>-0.2944135394205895</v>
+        <v>-0.1124297314178639</v>
       </c>
       <c r="BZ15">
-        <v>2.314055053304342</v>
+        <v>1.871052206035892</v>
       </c>
       <c r="CA15">
         <v>0</v>
@@ -4201,25 +4201,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.04287372704313683</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.8169659130495925</v>
+        <v>0.6666666666666674</v>
       </c>
       <c r="E16">
-        <v>-0.3624632701379193</v>
+        <v>-0.3636363636363636</v>
       </c>
       <c r="F16">
-        <v>-0.732722339348863</v>
+        <v>-0.650030774673288</v>
       </c>
       <c r="G16">
-        <v>-0.2830188679245282</v>
+        <v>-0.2393162393162395</v>
       </c>
       <c r="H16">
-        <v>-0.6964337045621259</v>
+        <v>-0.7166666666666667</v>
       </c>
       <c r="I16">
-        <v>-0.6637620078129132</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4243,16 +4243,16 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>-0.3551401869158878</v>
+        <v>-0.296875</v>
       </c>
       <c r="R16">
-        <v>-0.2661960624675878</v>
+        <v>-0.25</v>
       </c>
       <c r="S16">
-        <v>-0.2224033493660257</v>
+        <v>-0.1875</v>
       </c>
       <c r="T16">
-        <v>-0.2611588340451956</v>
+        <v>-0.1304347826086956</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -4309,88 +4309,88 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>-0.2613175477399922</v>
+        <v>-0.4065040650406504</v>
       </c>
       <c r="AN16">
-        <v>0.03586217768169724</v>
+        <v>0.08459214501510556</v>
       </c>
       <c r="AO16">
-        <v>-0.1947953872468213</v>
+        <v>-0.1072164948453607</v>
       </c>
       <c r="AP16">
-        <v>-0.3142945960017695</v>
+        <v>-0.4054955222326357</v>
       </c>
       <c r="AQ16">
-        <v>1.147627768376001</v>
+        <v>1.162162162162162</v>
       </c>
       <c r="AR16">
-        <v>0.2700125694095867</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="AS16">
-        <v>0.3043015963361546</v>
+        <v>0.2505910165484631</v>
       </c>
       <c r="AT16">
-        <v>-0.3371272672837031</v>
+        <v>-0.4046692607003879</v>
       </c>
       <c r="AU16">
-        <v>0.1581144373694554</v>
+        <v>0.3362318840579717</v>
       </c>
       <c r="AV16">
-        <v>-0.1160541586073501</v>
+        <v>-0.2448979591836735</v>
       </c>
       <c r="AW16">
-        <v>-0.7346637102734662</v>
+        <v>-0.8016528925619838</v>
       </c>
       <c r="AX16">
-        <v>-0.3820888417666142</v>
+        <v>-0.3476680799515445</v>
       </c>
       <c r="AY16">
-        <v>-0.5669478259125562</v>
+        <v>-0.4773662551440328</v>
       </c>
       <c r="AZ16">
-        <v>-0.6734103139086588</v>
+        <v>-0.6315789473684211</v>
       </c>
       <c r="BA16">
-        <v>-0.08940641200188215</v>
+        <v>-0.03174603174603174</v>
       </c>
       <c r="BB16">
-        <v>-0.0417154987758847</v>
+        <v>0.04141006706681403</v>
       </c>
       <c r="BC16">
-        <v>-0.4000000000000004</v>
+        <v>-0.4210526315789477</v>
       </c>
       <c r="BD16">
-        <v>0.5573475001876835</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="BE16">
-        <v>0.8080706977362647</v>
+        <v>0.8245898527391436</v>
       </c>
       <c r="BF16">
-        <v>-1.2</v>
+        <v>-1.127272727272727</v>
       </c>
       <c r="BG16">
-        <v>-1.456118086422713</v>
+        <v>-1.538447803587168</v>
       </c>
       <c r="BH16">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI16">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ16">
-        <v>-0.6392137748070319</v>
+        <v>-0.4514344970618732</v>
       </c>
       <c r="BK16">
-        <v>-0.6186310418928022</v>
+        <v>-0.6046511627906979</v>
       </c>
       <c r="BL16">
-        <v>-0.3397095276418359</v>
+        <v>-0.2106299212598423</v>
       </c>
       <c r="BM16">
-        <v>-1</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BN16">
-        <v>0.7954106961055454</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BO16">
         <v>1</v>
@@ -4402,13 +4402,13 @@
         <v>0</v>
       </c>
       <c r="BR16">
-        <v>0.332380049829443</v>
+        <v>0.25</v>
       </c>
       <c r="BS16">
-        <v>0.1064486964465746</v>
+        <v>0.2022148693751263</v>
       </c>
       <c r="BT16">
-        <v>-0.01881401015302317</v>
+        <v>-0.125</v>
       </c>
       <c r="BU16">
         <v>0</v>
@@ -4417,16 +4417,16 @@
         <v>1</v>
       </c>
       <c r="BW16">
-        <v>-0.4385280927109996</v>
+        <v>-0.483785929807845</v>
       </c>
       <c r="BX16">
-        <v>-0.4218961961712514</v>
+        <v>-0.5131150690519054</v>
       </c>
       <c r="BY16">
-        <v>-0.3844917393414731</v>
+        <v>-0.2234209679556338</v>
       </c>
       <c r="BZ16">
-        <v>2.915109914249728</v>
+        <v>2.357041085995592</v>
       </c>
       <c r="CA16">
         <v>0</v>
@@ -4440,25 +4440,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6431059056470524</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="D17">
-        <v>0.8169659130495925</v>
+        <v>0.6666666666666674</v>
       </c>
       <c r="E17">
-        <v>-0.3181743011370611</v>
+        <v>-0.3181818181818182</v>
       </c>
       <c r="F17">
-        <v>-0.6786853037146652</v>
+        <v>-0.5987193806979422</v>
       </c>
       <c r="G17">
-        <v>-0.2452830188679244</v>
+        <v>-0.2051282051282053</v>
       </c>
       <c r="H17">
-        <v>-0.7631003712287926</v>
+        <v>-0.7833333333333333</v>
       </c>
       <c r="I17">
-        <v>-0.3891018666489491</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4482,16 +4482,16 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0.7289719626168224</v>
+        <v>0.609375</v>
       </c>
       <c r="R17">
-        <v>0.7985881874027634</v>
+        <v>0.75</v>
       </c>
       <c r="S17">
-        <v>-0.8890700160326923</v>
+        <v>-0.8125</v>
       </c>
       <c r="T17">
-        <v>0.4787911957495247</v>
+        <v>0.6086956521739132</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -4548,88 +4548,88 @@
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>0.1045270190959969</v>
+        <v>0.2764227642276423</v>
       </c>
       <c r="AN17">
-        <v>-0.6344326905653898</v>
+        <v>-0.5740181268882177</v>
       </c>
       <c r="AO17">
-        <v>-0.7564391272049632</v>
+        <v>-0.6845360824742269</v>
       </c>
       <c r="AP17">
-        <v>-1.100031086006192</v>
+        <v>-1.230237790273872</v>
       </c>
       <c r="AQ17">
-        <v>0.6098821854798179</v>
+        <v>0.6081081081081083</v>
       </c>
       <c r="AR17">
-        <v>0.7650356133271624</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="AS17">
-        <v>-1.004769421864663</v>
+        <v>-0.8274231678486998</v>
       </c>
       <c r="AT17">
-        <v>0.3914441612877247</v>
+        <v>0.3891050583657585</v>
       </c>
       <c r="AU17">
-        <v>0.5177969788887179</v>
+        <v>0.8231884057971016</v>
       </c>
       <c r="AV17">
-        <v>-0.618955512572534</v>
+        <v>-0.7755102040816326</v>
       </c>
       <c r="AW17">
-        <v>0.1611234294161124</v>
+        <v>0.2</v>
       </c>
       <c r="AX17">
-        <v>0.3309774469462841</v>
+        <v>0.3452453058752272</v>
       </c>
       <c r="AY17">
-        <v>0.7428971511957633</v>
+        <v>0.625514403292181</v>
       </c>
       <c r="AZ17">
-        <v>-0.4904266349570334</v>
+        <v>-0.4210526315789481</v>
       </c>
       <c r="BA17">
-        <v>-0.4470320600094108</v>
+        <v>-0.4126984126984127</v>
       </c>
       <c r="BB17">
-        <v>-0.5061583435921088</v>
+        <v>-0.4479133996843536</v>
       </c>
       <c r="BC17">
-        <v>-0.4000000000000004</v>
+        <v>-0.4210526315789477</v>
       </c>
       <c r="BD17">
-        <v>-0.6586834093127168</v>
+        <v>-0.6774193548387096</v>
       </c>
       <c r="BE17">
-        <v>-0.5848331570199909</v>
+        <v>-0.46291104073108</v>
       </c>
       <c r="BF17">
-        <v>-0.3272727272727273</v>
+        <v>-0.2545454545454545</v>
       </c>
       <c r="BG17">
-        <v>0.5263536292729085</v>
+        <v>0.5462987618694394</v>
       </c>
       <c r="BH17">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI17">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ17">
-        <v>-0.1367472254562306</v>
+        <v>-0.0145178015900447</v>
       </c>
       <c r="BK17">
-        <v>0.01737877743005341</v>
+        <v>0.09523809523809548</v>
       </c>
       <c r="BL17">
-        <v>-0.5503394489016783</v>
+        <v>-0.4212598425196847</v>
       </c>
       <c r="BM17">
-        <v>-2.499999999999998</v>
+        <v>-1.666666666666665</v>
       </c>
       <c r="BN17">
-        <v>1.332271888127439</v>
+        <v>1.666666666666665</v>
       </c>
       <c r="BO17">
         <v>1</v>
@@ -4641,13 +4641,13 @@
         <v>0</v>
       </c>
       <c r="BR17">
-        <v>-0.6647600996588859</v>
+        <v>-0.5</v>
       </c>
       <c r="BS17">
-        <v>0.1064486964465746</v>
+        <v>0.2022148693751263</v>
       </c>
       <c r="BT17">
-        <v>-0.1038537721145768</v>
+        <v>-0.1964285714285714</v>
       </c>
       <c r="BU17">
         <v>1</v>
@@ -4656,16 +4656,16 @@
         <v>1</v>
       </c>
       <c r="BW17">
-        <v>0.1887788305287848</v>
+        <v>0.4107352707638557</v>
       </c>
       <c r="BX17">
-        <v>0.4452881775055991</v>
+        <v>0.6525611433484512</v>
       </c>
       <c r="BY17">
-        <v>0.2825539211913458</v>
+        <v>0.5984895803759015</v>
       </c>
       <c r="BZ17">
-        <v>0.4433615646423866</v>
+        <v>0.3584843983772587</v>
       </c>
       <c r="CA17">
         <v>1</v>
@@ -4679,25 +4679,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>-0.5573584515607788</v>
+        <v>-0.5581395348837209</v>
       </c>
       <c r="D18">
-        <v>1.274904802313903</v>
+        <v>1.076923076923078</v>
       </c>
       <c r="E18">
-        <v>0.2575822958740947</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F18">
-        <v>-0.189976728693291</v>
+        <v>-0.1346613890308027</v>
       </c>
       <c r="G18">
-        <v>0.4339622641509444</v>
+        <v>0.4102564102564106</v>
       </c>
       <c r="H18">
-        <v>-0.9297670378954592</v>
+        <v>-0.95</v>
       </c>
       <c r="I18">
-        <v>0.02288834509699701</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4721,16 +4721,16 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>-0.1308411214953271</v>
+        <v>-0.109375</v>
       </c>
       <c r="R18">
-        <v>-0.2661960624675878</v>
+        <v>-0.25</v>
       </c>
       <c r="S18">
-        <v>-0.2224033493660257</v>
+        <v>-0.1875</v>
       </c>
       <c r="T18">
-        <v>-0.2611588340451956</v>
+        <v>-0.1304347826086956</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -4787,88 +4787,88 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>-0.06968467939733124</v>
+        <v>-0.04878048780487805</v>
       </c>
       <c r="AN18">
-        <v>-0.5298912890956606</v>
+        <v>-0.4712990936555893</v>
       </c>
       <c r="AO18">
-        <v>-0.3151476172378516</v>
+        <v>-0.2309278350515462</v>
       </c>
       <c r="AP18">
-        <v>-0.4714418940026537</v>
+        <v>-0.5704439758408828</v>
       </c>
       <c r="AQ18">
-        <v>-0.9508915795115439</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="AR18">
-        <v>0.4500209490159779</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="AS18">
-        <v>3.84683150085328</v>
+        <v>3.167848699763593</v>
       </c>
       <c r="AT18">
-        <v>0.2914441612877253</v>
+        <v>0.2801556420233468</v>
       </c>
       <c r="AU18">
-        <v>-0.5098674254520331</v>
+        <v>-0.5681159420289853</v>
       </c>
       <c r="AV18">
-        <v>0.5415860735009672</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="AW18">
-        <v>0.08425720620842575</v>
+        <v>0.1140495867768594</v>
       </c>
       <c r="AX18">
-        <v>0.2636600001097517</v>
+        <v>0.2798304058146578</v>
       </c>
       <c r="AY18">
-        <v>-0.821096851321633</v>
+        <v>-0.6913580246913579</v>
       </c>
       <c r="AZ18">
-        <v>-0.124459277053781</v>
+        <v>0</v>
       </c>
       <c r="BA18">
-        <v>-0.1192085493358429</v>
+        <v>-0.06349206349206349</v>
       </c>
       <c r="BB18">
-        <v>-0.4731799086395677</v>
+        <v>-0.4131682802382985</v>
       </c>
       <c r="BC18">
-        <v>-0.4000000000000004</v>
+        <v>-0.4210526315789477</v>
       </c>
       <c r="BD18">
-        <v>-0.5573475001876835</v>
+        <v>-0.5483870967741935</v>
       </c>
       <c r="BE18">
-        <v>-0.7083235258104101</v>
+        <v>-0.5770567225092774</v>
       </c>
       <c r="BF18">
-        <v>0.3272727272727273</v>
+        <v>0.4</v>
       </c>
       <c r="BG18">
-        <v>0.8230688529934521</v>
+        <v>0.8583213943603362</v>
       </c>
       <c r="BH18">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI18">
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>-0.1176662172530354</v>
+        <v>0.002073971655721177</v>
       </c>
       <c r="BK18">
-        <v>-0.3449052968677754</v>
+        <v>-0.3034330011074194</v>
       </c>
       <c r="BL18">
-        <v>0.7134400786573749</v>
+        <v>0.8425196850393685</v>
       </c>
       <c r="BM18">
-        <v>-2.999999999999998</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="BN18">
-        <v>0.2585495040836528</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BO18">
         <v>0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="BR18">
-        <v>0.332380049829443</v>
+        <v>0.25</v>
       </c>
       <c r="BS18">
-        <v>-0.5798797289996552</v>
+        <v>-0.4448727126252779</v>
       </c>
       <c r="BT18">
-        <v>0.8741034904432898</v>
+        <v>0.625</v>
       </c>
       <c r="BU18">
         <v>1</v>
@@ -4895,16 +4895,16 @@
         <v>1</v>
       </c>
       <c r="BW18">
-        <v>-0.08411438149840726</v>
+        <v>0.02159758615213597</v>
       </c>
       <c r="BX18">
-        <v>0.5646462114197294</v>
+        <v>0.8130031728820962</v>
       </c>
       <c r="BY18">
-        <v>1.489945891481498</v>
+        <v>2.086196127420363</v>
       </c>
       <c r="BZ18">
-        <v>-0.6809145919270432</v>
+        <v>-0.5505602589393386</v>
       </c>
       <c r="CA18">
         <v>0</v>
@@ -4918,25 +4918,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3001160893019578</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="D19">
-        <v>-0.09891186547902873</v>
+        <v>-0.1538461538461526</v>
       </c>
       <c r="E19">
-        <v>0.4790271408783854</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.7940534666446077</v>
+        <v>0.7997340759318418</v>
       </c>
       <c r="G19">
-        <v>0.2452830188679244</v>
+        <v>0.2393162393162388</v>
       </c>
       <c r="H19">
-        <v>0.9035662954378741</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="I19">
-        <v>-0.3891018666489491</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4960,16 +4960,16 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>-0.2429906542056075</v>
+        <v>-0.203125</v>
       </c>
       <c r="R19">
-        <v>0.3194352749611054</v>
+        <v>0.3</v>
       </c>
       <c r="S19">
-        <v>0.04426331730064099</v>
+        <v>0.0625</v>
       </c>
       <c r="T19">
-        <v>-0.5658441404312569</v>
+        <v>-0.434782608695652</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -5026,88 +5026,88 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>-0.06968467939733124</v>
+        <v>-0.04878048780487805</v>
       </c>
       <c r="AN19">
-        <v>0.5893166560508519</v>
+        <v>0.6283987915407856</v>
       </c>
       <c r="AO19">
-        <v>0.2625430867190939</v>
+        <v>0.3628865979381443</v>
       </c>
       <c r="AP19">
-        <v>-0.4714418940026537</v>
+        <v>-0.5704439758408828</v>
       </c>
       <c r="AQ19">
-        <v>2.314929155638448</v>
+        <v>2.364864864864865</v>
       </c>
       <c r="AR19">
-        <v>-0.09000418980319558</v>
+        <v>-0.2325581395348837</v>
       </c>
       <c r="AS19">
-        <v>3.502339127642538</v>
+        <v>2.884160756501182</v>
       </c>
       <c r="AT19">
-        <v>-0.2942701244265606</v>
+        <v>-0.3579766536964974</v>
       </c>
       <c r="AU19">
-        <v>-0.5955061258137623</v>
+        <v>-0.6840579710144926</v>
       </c>
       <c r="AV19">
-        <v>0.309477756286267</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="AW19">
-        <v>-0.3118994826311898</v>
+        <v>-0.3289256198347109</v>
       </c>
       <c r="AX19">
-        <v>0.09723631209721337</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="AY19">
-        <v>1.427144527297124</v>
+        <v>1.201646090534979</v>
       </c>
       <c r="AZ19">
-        <v>0.7904591177043493</v>
+        <v>1.052631578947369</v>
       </c>
       <c r="BA19">
-        <v>0.7152512960150572</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="BB19">
-        <v>0.5888980178334335</v>
+        <v>0.7058061183172464</v>
       </c>
       <c r="BC19">
-        <v>0.7999999999999998</v>
+        <v>0.8421052631578944</v>
       </c>
       <c r="BD19">
-        <v>0.5573475001876835</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="BE19">
-        <v>0.5322164997994477</v>
+        <v>0.5696099235082681</v>
       </c>
       <c r="BF19">
-        <v>0.7636363636363637</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="BG19">
-        <v>-0.0794146511917171</v>
+        <v>-0.09072083955173854</v>
       </c>
       <c r="BH19">
-        <v>0.4528206503810519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BI19">
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0.7107675555690131</v>
+        <v>0.7224334600760457</v>
       </c>
       <c r="BK19">
-        <v>0.7701245762488751</v>
+        <v>0.9235880398671092</v>
       </c>
       <c r="BL19">
-        <v>0.9240699999172163</v>
+        <v>1.05314960629921</v>
       </c>
       <c r="BM19">
-        <v>-1</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BN19">
-        <v>-0.2783116879382408</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO19">
         <v>1</v>
@@ -5119,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>-0.332380049829443</v>
+        <v>-0.25</v>
       </c>
       <c r="BS19">
-        <v>-0.193819989686151</v>
+        <v>-0.08088594775005054</v>
       </c>
       <c r="BT19">
-        <v>0.2363052757316377</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="BU19">
         <v>0</v>
@@ -5134,16 +5134,16 @@
         <v>1</v>
       </c>
       <c r="BW19">
-        <v>-0.2669341239338621</v>
+        <v>-0.2390979831665872</v>
       </c>
       <c r="BX19">
-        <v>-0.3145095464164624</v>
+        <v>-0.3687650704261544</v>
       </c>
       <c r="BY19">
-        <v>-0.411773267830472</v>
+        <v>-0.2570363219957224</v>
       </c>
       <c r="BZ19">
-        <v>-1.428462543457387</v>
+        <v>-1.154997582861772</v>
       </c>
       <c r="CA19">
         <v>1</v>
@@ -5157,25 +5157,25 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.4716109974745051</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="D20">
-        <v>-0.7858201993754947</v>
+        <v>-0.7692307692307676</v>
       </c>
       <c r="E20">
-        <v>-0.6724860531439263</v>
+        <v>-0.6818181818181818</v>
       </c>
       <c r="F20">
-        <v>-0.4376081182663185</v>
+        <v>-0.369802189075034</v>
       </c>
       <c r="G20">
-        <v>-1.301886792452831</v>
+        <v>-1.162393162393163</v>
       </c>
       <c r="H20">
-        <v>0.8702329621045408</v>
+        <v>0.85</v>
       </c>
       <c r="I20">
-        <v>0.2517717960669671</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5199,16 +5199,16 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>-1.177570093457944</v>
+        <v>-0.984375</v>
       </c>
       <c r="R20">
-        <v>-0.6388705499222107</v>
+        <v>-0.6</v>
       </c>
       <c r="S20">
-        <v>0.844263317300641</v>
+        <v>0.8125</v>
       </c>
       <c r="T20">
-        <v>0.4787911957495247</v>
+        <v>0.6086956521739132</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -5265,88 +5265,88 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>-0.2351857929659929</v>
+        <v>-0.3577235772357724</v>
       </c>
       <c r="AN20">
-        <v>0.7983994589903102</v>
+        <v>0.8338368580060423</v>
       </c>
       <c r="AO20">
-        <v>0.8402337906760394</v>
+        <v>0.9567010309278349</v>
       </c>
       <c r="AP20">
-        <v>0.5893023675033168</v>
+        <v>0.5429580860147868</v>
       </c>
       <c r="AQ20">
-        <v>0.3475672669938745</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="AR20">
-        <v>-0.9000418980319558</v>
+        <v>-1.069767441860465</v>
       </c>
       <c r="AS20">
-        <v>2.526277403545438</v>
+        <v>2.080378250591016</v>
       </c>
       <c r="AT20">
-        <v>-0.8085558387122751</v>
+        <v>-0.9182879377431898</v>
       </c>
       <c r="AU20">
-        <v>-1.066518977803273</v>
+        <v>-1.321739130434783</v>
       </c>
       <c r="AV20">
-        <v>0.2321083172147002</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="AW20">
-        <v>0.8706577974870658</v>
+        <v>0.9933884297520662</v>
       </c>
       <c r="AX20">
-        <v>-0.2050688889742514</v>
+        <v>-0.1756511205330103</v>
       </c>
       <c r="AY20">
-        <v>-0.7233472261642958</v>
+        <v>-0.6090534979423866</v>
       </c>
       <c r="AZ20">
-        <v>-0.4904266349570334</v>
+        <v>-0.4210526315789481</v>
       </c>
       <c r="BA20">
-        <v>-0.4172299226754501</v>
+        <v>-0.3809523809523809</v>
       </c>
       <c r="BB20">
-        <v>0.2071712689501579</v>
+        <v>0.3036299233343586</v>
       </c>
       <c r="BC20">
-        <v>-0.6000000000000005</v>
+        <v>-0.6315789473684215</v>
       </c>
       <c r="BD20">
-        <v>-0.8613552275627836</v>
+        <v>-0.9354838709677419</v>
       </c>
       <c r="BE20">
-        <v>-0.3988861714472123</v>
+        <v>-0.2910349207493881</v>
       </c>
       <c r="BF20">
-        <v>0.03636363636363636</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="BG20">
-        <v>1.041854390262109</v>
+        <v>1.08839398191923</v>
       </c>
       <c r="BH20">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI20">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ20">
-        <v>-0.5358583137063924</v>
+        <v>-0.3615623919806427</v>
       </c>
       <c r="BK20">
-        <v>0.1743685429591122</v>
+        <v>0.2679955703211516</v>
       </c>
       <c r="BL20">
-        <v>-0.1290796063819936</v>
+        <v>0</v>
       </c>
       <c r="BM20">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BN20">
-        <v>-0.2783116879382408</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO20">
         <v>1</v>
@@ -5358,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="BR20">
-        <v>-0.332380049829443</v>
+        <v>-0.25</v>
       </c>
       <c r="BS20">
-        <v>-0.7085663087708233</v>
+        <v>-0.5662016342503537</v>
       </c>
       <c r="BT20">
-        <v>-0.1888935340761304</v>
+        <v>-0.2678571428571428</v>
       </c>
       <c r="BU20">
         <v>0</v>
@@ -5373,16 +5373,16 @@
         <v>0</v>
       </c>
       <c r="BW20">
-        <v>-0.2881383630662394</v>
+        <v>-0.2693346037795775</v>
       </c>
       <c r="BX20">
-        <v>-0.4477137532019896</v>
+        <v>-0.5478192369388556</v>
       </c>
       <c r="BY20">
-        <v>-0.370390138467092</v>
+        <v>-0.2060454640092367</v>
       </c>
       <c r="BZ20">
-        <v>-1.233604072679335</v>
+        <v>-0.9974428301805693</v>
       </c>
       <c r="CA20">
         <v>0</v>
@@ -5396,25 +5396,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.986095721992147</v>
+        <v>1.116279069767442</v>
       </c>
       <c r="D21">
-        <v>-0.09891186547902873</v>
+        <v>-0.1538461538461526</v>
       </c>
       <c r="E21">
-        <v>-0.4510412081396356</v>
+        <v>-0.4545454545454545</v>
       </c>
       <c r="F21">
-        <v>-0.4503835026442285</v>
+        <v>-0.3819331798540057</v>
       </c>
       <c r="G21">
-        <v>-0.5471698113207542</v>
+        <v>-0.4786324786324783</v>
       </c>
       <c r="H21">
-        <v>-1.429767037895459</v>
+        <v>-1.45</v>
       </c>
       <c r="I21">
-        <v>-1.441965741110811</v>
+        <v>-1.318681318681319</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5438,16 +5438,16 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.214953271028037</v>
+        <v>1.015625</v>
       </c>
       <c r="R21">
-        <v>1.863372437273114</v>
+        <v>1.75</v>
       </c>
       <c r="S21">
-        <v>0.644263317300641</v>
+        <v>0.625</v>
       </c>
       <c r="T21">
-        <v>0.5658441404312566</v>
+        <v>0.6956521739130438</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -5504,88 +5504,88 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>31.89816199412838</v>
+        <v>59.6260162601626</v>
       </c>
       <c r="AN21">
-        <v>-0.1178751774208457</v>
+        <v>-0.06646525679758328</v>
       </c>
       <c r="AO21">
-        <v>-0.1225840492522032</v>
+        <v>-0.03298969072164951</v>
       </c>
       <c r="AP21">
-        <v>0.628589192003538</v>
+        <v>0.5841951994168486</v>
       </c>
       <c r="AQ21">
-        <v>-0.5049562180854406</v>
+        <v>-0.5405405405405405</v>
       </c>
       <c r="AR21">
-        <v>0.4050188541143801</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="AS21">
-        <v>-0.8612309330268541</v>
+        <v>-0.7092198581560285</v>
       </c>
       <c r="AT21">
-        <v>0.04858701843058201</v>
+        <v>0.01556420233463056</v>
       </c>
       <c r="AU21">
-        <v>0.2094976575864925</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="AV21">
-        <v>-0.4642166344294005</v>
+        <v>-0.6122448979591837</v>
       </c>
       <c r="AW21">
-        <v>-0.4478935698447893</v>
+        <v>-0.4809917355371903</v>
       </c>
       <c r="AX21">
-        <v>-0.02929555556775021</v>
+        <v>-0.004845548152634749</v>
       </c>
       <c r="AY21">
-        <v>2.776089354468378</v>
+        <v>2.337448559670781</v>
       </c>
       <c r="AZ21">
-        <v>-0.124459277053781</v>
+        <v>0</v>
       </c>
       <c r="BA21">
-        <v>-0.1192085493358429</v>
+        <v>-0.06349206349206349</v>
       </c>
       <c r="BB21">
-        <v>0.08694583788487316</v>
+        <v>0.1769639075325718</v>
       </c>
       <c r="BC21">
-        <v>-0.4000000000000004</v>
+        <v>-0.4210526315789477</v>
       </c>
       <c r="BD21">
-        <v>-0.5573475001876835</v>
+        <v>-0.5483870967741935</v>
       </c>
       <c r="BE21">
-        <v>-0.3500408382398033</v>
+        <v>-0.2458857814662646</v>
       </c>
       <c r="BF21">
-        <v>0.3272727272727273</v>
+        <v>0.4</v>
       </c>
       <c r="BG21">
-        <v>0.8230688529934521</v>
+        <v>0.8583213943603362</v>
       </c>
       <c r="BH21">
-        <v>0.4528206503810519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BI21">
         <v>-0.9999999999999994</v>
       </c>
       <c r="BJ21">
-        <v>-0.3275573074881805</v>
+        <v>-0.1804355340477011</v>
       </c>
       <c r="BK21">
-        <v>-0.04702728022289429</v>
+        <v>0.02436323366555912</v>
       </c>
       <c r="BL21">
-        <v>-0.1290796063819936</v>
+        <v>0</v>
       </c>
       <c r="BM21">
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>-0.5467422839491876</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BO21">
         <v>0</v>
@@ -5597,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="BR21">
-        <v>0.6647600996588859</v>
+        <v>0.5</v>
       </c>
       <c r="BS21">
-        <v>0.02065764326579583</v>
+        <v>0.1213289216250758</v>
       </c>
       <c r="BT21">
-        <v>-0.06133389113379999</v>
+        <v>-0.1607142857142857</v>
       </c>
       <c r="BU21">
         <v>0</v>
@@ -5612,16 +5612,16 @@
         <v>1</v>
       </c>
       <c r="BW21">
-        <v>-0.2008267901682152</v>
+        <v>-0.1448308718437351</v>
       </c>
       <c r="BX21">
-        <v>-0.4529711829657569</v>
+        <v>-0.5548863163282183</v>
       </c>
       <c r="BY21">
-        <v>2.006390141368965</v>
+        <v>2.722540836219788</v>
       </c>
       <c r="BZ21">
-        <v>5.502298973989223</v>
+        <v>4.44893850682193</v>
       </c>
       <c r="CA21">
         <v>0</v>
@@ -5635,25 +5635,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>-0.9003482679058734</v>
+        <v>-0.9302325581395349</v>
       </c>
       <c r="D22">
-        <v>-0.09891186547902873</v>
+        <v>-0.1538461538461526</v>
       </c>
       <c r="E22">
-        <v>-0.6724860531439263</v>
+        <v>-0.6818181818181818</v>
       </c>
       <c r="F22">
-        <v>-0.7465962080134212</v>
+        <v>-0.6632048419154004</v>
       </c>
       <c r="G22">
-        <v>-0.7735849056603771</v>
+        <v>-0.6837606837606837</v>
       </c>
       <c r="H22">
-        <v>0.07023296210454077</v>
+        <v>0.05</v>
       </c>
       <c r="I22">
-        <v>0.02288834509699701</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -5677,16 +5677,16 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>-0.7663551401869159</v>
+        <v>-0.640625</v>
       </c>
       <c r="R22">
-        <v>-0.5323921249351755</v>
+        <v>-0.5</v>
       </c>
       <c r="S22">
-        <v>-0.02240334936602567</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>-0.130579417022598</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -5743,88 +5743,88 @@
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>-0.2874493025139914</v>
+        <v>-0.4552845528455284</v>
       </c>
       <c r="AN22">
-        <v>0.3125894168662746</v>
+        <v>0.3564954682779456</v>
       </c>
       <c r="AO22">
-        <v>0.1582378207268677</v>
+        <v>0.2556701030927835</v>
       </c>
       <c r="AP22">
-        <v>-0.9035969635050862</v>
+        <v>-1.024052223263563</v>
       </c>
       <c r="AQ22">
-        <v>1.606678875726402</v>
+        <v>1.635135135135135</v>
       </c>
       <c r="AR22">
-        <v>-0.04500209490159779</v>
+        <v>-0.186046511627907</v>
       </c>
       <c r="AS22">
-        <v>0.4593231642809886</v>
+        <v>0.3782505910165483</v>
       </c>
       <c r="AT22">
-        <v>0.2628727327162963</v>
+        <v>0.2490272373540857</v>
       </c>
       <c r="AU22">
-        <v>0.0553479969353801</v>
+        <v>0.1971014492753627</v>
       </c>
       <c r="AV22">
-        <v>0.2707930367504836</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="AW22">
-        <v>-0.6844050258684404</v>
+        <v>-0.7454545454545458</v>
       </c>
       <c r="AX22">
-        <v>-0.3104082270795659</v>
+        <v>-0.2780133252574197</v>
       </c>
       <c r="AY22">
-        <v>-1.192545426919515</v>
+        <v>-1.004115226337448</v>
       </c>
       <c r="AZ22">
-        <v>-0.6734103139086588</v>
+        <v>-0.6315789473684211</v>
       </c>
       <c r="BA22">
-        <v>-0.5960427466792144</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="BB22">
-        <v>-0.3953585164053594</v>
+        <v>-0.3311779258589281</v>
       </c>
       <c r="BC22">
-        <v>-1.600000000000001</v>
+        <v>-1.68421052631579</v>
       </c>
       <c r="BD22">
-        <v>-1.570706591438017</v>
+        <v>-1.838709677419355</v>
       </c>
       <c r="BE22">
-        <v>-1.484808915052914</v>
+        <v>-1.29478438835111</v>
       </c>
       <c r="BF22">
-        <v>0.6181818181818182</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="BG22">
-        <v>2.472722424656273</v>
+        <v>2.593079873126605</v>
       </c>
       <c r="BH22">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI22">
         <v>0.9999999999999994</v>
       </c>
       <c r="BJ22">
-        <v>-0.04770252050798746</v>
+        <v>0.06291047355686155</v>
       </c>
       <c r="BK22">
-        <v>0.496398831223849</v>
+        <v>0.6223698781838315</v>
       </c>
       <c r="BL22">
-        <v>-0.5503394489016783</v>
+        <v>-0.4212598425196847</v>
       </c>
       <c r="BM22">
-        <v>-2.499999999999998</v>
+        <v>-1.666666666666665</v>
       </c>
       <c r="BN22">
-        <v>0.5269801000945997</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BO22">
         <v>1</v>
@@ -5836,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="BR22">
-        <v>-0.6647600996588859</v>
+        <v>-0.5</v>
       </c>
       <c r="BS22">
-        <v>0.02065764326579583</v>
+        <v>0.1213289216250758</v>
       </c>
       <c r="BT22">
-        <v>0.1937853947508609</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="BU22">
         <v>0</v>
@@ -5851,16 +5851,16 @@
         <v>1</v>
       </c>
       <c r="BW22">
-        <v>-0.3640459754224809</v>
+        <v>-0.3775766237891059</v>
       </c>
       <c r="BX22">
-        <v>-0.3893844583314595</v>
+        <v>-0.4694125294605215</v>
       </c>
       <c r="BY22">
-        <v>-0.2507569493497929</v>
+        <v>-0.05863759392803744</v>
       </c>
       <c r="BZ22">
-        <v>0.2340345004080813</v>
+        <v>0.1892309206955836</v>
       </c>
       <c r="CA22">
         <v>0</v>
@@ -5874,25 +5874,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-0.7288533597333261</v>
+        <v>-0.7441860465116279</v>
       </c>
       <c r="D23">
-        <v>1.732843691578214</v>
+        <v>1.487179487179487</v>
       </c>
       <c r="E23">
-        <v>1.541962396898981</v>
+        <v>1.590909090909091</v>
       </c>
       <c r="F23">
-        <v>1.045064269346265</v>
+        <v>1.038083830657126</v>
       </c>
       <c r="G23">
-        <v>1.641509433962265</v>
+        <v>1.504273504273504</v>
       </c>
       <c r="H23">
-        <v>0.5702329621045408</v>
+        <v>0.55</v>
       </c>
       <c r="I23">
-        <v>-0.8468687685888893</v>
+        <v>-0.7472527472527473</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -5916,16 +5916,16 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>-1.177570093457944</v>
+        <v>-0.984375</v>
       </c>
       <c r="R23">
-        <v>-0.6921097624157283</v>
+        <v>-0.65</v>
       </c>
       <c r="S23">
-        <v>-0.955736682699359</v>
+        <v>-0.875</v>
       </c>
       <c r="T23">
-        <v>-0.7834765021355863</v>
+        <v>-0.6521739130434782</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -5982,106 +5982,106 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>-0.2874493025139914</v>
+        <v>-0.4552845528455284</v>
       </c>
       <c r="AN23">
-        <v>0.03586217768169724</v>
+        <v>0.08459214501510556</v>
       </c>
       <c r="AO23">
-        <v>0.1742847847256717</v>
+        <v>0.2721649484536083</v>
       </c>
       <c r="AP23">
-        <v>-1.178604735006634</v>
+        <v>-1.312712017077996</v>
       </c>
       <c r="AQ23">
-        <v>0.4524932343882519</v>
+        <v>0.4459459459459461</v>
       </c>
       <c r="AR23">
-        <v>0.8100377082287602</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="AS23">
-        <v>0.3961662291923524</v>
+        <v>0.3262411347517728</v>
       </c>
       <c r="AT23">
-        <v>0.6057298755734389</v>
+        <v>0.6225680933852136</v>
       </c>
       <c r="AU23">
-        <v>-0.1159294037880784</v>
+        <v>-0.03478260869565184</v>
       </c>
       <c r="AV23">
-        <v>0.4255319148936171</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="AW23">
-        <v>-0.2823355506282335</v>
+        <v>-0.2958677685950415</v>
       </c>
       <c r="AX23">
-        <v>-0.3484301183483481</v>
+        <v>-0.3149606299212598</v>
       </c>
       <c r="AY23">
-        <v>-0.7819970012586981</v>
+        <v>-0.6584362139917693</v>
       </c>
       <c r="AZ23">
-        <v>0.6074754387527238</v>
+        <v>0.8421052631578961</v>
       </c>
       <c r="BA23">
-        <v>0.5364384720112929</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="BB23">
-        <v>-0.3550493904782456</v>
+        <v>-0.2887094037134973</v>
       </c>
       <c r="BC23">
-        <v>0.3999999999999995</v>
+        <v>0.4210526315789467</v>
       </c>
       <c r="BD23">
-        <v>0.1013359091250334</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="BE23">
-        <v>-0.4536428733311211</v>
+        <v>-0.3416481072649441</v>
       </c>
       <c r="BF23">
-        <v>0.9818181818181818</v>
+        <v>1.054545454545454</v>
       </c>
       <c r="BG23">
-        <v>0.4689485563017406</v>
+        <v>0.4859321862613552</v>
       </c>
       <c r="BH23">
-        <v>0.4528206503810519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BI23">
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0.583878851017767</v>
+        <v>0.6120981679917047</v>
       </c>
       <c r="BK23">
-        <v>-0.1649708732998538</v>
+        <v>-0.1054263565891471</v>
       </c>
       <c r="BL23">
-        <v>0.08155031487784879</v>
+        <v>0.2106299212598423</v>
       </c>
       <c r="BM23">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>1</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
         <v>-0.5</v>
       </c>
-      <c r="BN23">
-        <v>-0.009881091927293948</v>
-      </c>
-      <c r="BO23">
-        <v>1</v>
-      </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
-      <c r="BQ23">
-        <v>0</v>
-      </c>
-      <c r="BR23">
-        <v>-0.6647600996588859</v>
-      </c>
       <c r="BS23">
-        <v>-1.266208154445885</v>
+        <v>-1.091960294625682</v>
       </c>
       <c r="BT23">
-        <v>2.234739681828148</v>
+        <v>1.767857142857143</v>
       </c>
       <c r="BU23">
         <v>0</v>
@@ -6090,16 +6090,16 @@
         <v>1</v>
       </c>
       <c r="BW23">
-        <v>-0.3036406219277254</v>
+        <v>-0.2914403684294108</v>
       </c>
       <c r="BX23">
-        <v>-0.4456555423860717</v>
+        <v>-0.5450525733998804</v>
       </c>
       <c r="BY23">
-        <v>-0.2071618041629806</v>
+        <v>-0.004921166695058057</v>
       </c>
       <c r="BZ23">
-        <v>-0.1078535437752278</v>
+        <v>-0.08720605446325484</v>
       </c>
       <c r="CA23">
         <v>1</v>
@@ -6113,25 +6113,25 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.2143686352156841</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="D24">
-        <v>-1.472728533271958</v>
+        <v>-1.38461538461538</v>
       </c>
       <c r="E24">
-        <v>0.5676050788801017</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="F24">
-        <v>1.827573362312411</v>
+        <v>1.781122968301197</v>
       </c>
       <c r="G24">
-        <v>0.1698113207547168</v>
+        <v>0.1709401709401703</v>
       </c>
       <c r="H24">
-        <v>-0.2631003712287925</v>
+        <v>-0.2833333333333333</v>
       </c>
       <c r="I24">
-        <v>-0.5264319372309312</v>
+        <v>-0.4395604395604396</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -6155,16 +6155,16 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.2803738317757009</v>
+        <v>0.234375</v>
       </c>
       <c r="R24">
-        <v>0.2661960624675878</v>
+        <v>0.25</v>
       </c>
       <c r="S24">
-        <v>-0.08907001603269234</v>
+        <v>-0.0625</v>
       </c>
       <c r="T24">
-        <v>-0.1741058893634637</v>
+        <v>-0.04347826086956506</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -6221,88 +6221,88 @@
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>-0.2700281326646586</v>
+        <v>-0.4227642276422764</v>
       </c>
       <c r="AN24">
-        <v>-0.1117256832167441</v>
+        <v>-0.06042296072507586</v>
       </c>
       <c r="AO24">
-        <v>0.01381514473763113</v>
+        <v>0.1072164948453607</v>
       </c>
       <c r="AP24">
-        <v>0.1178604735006635</v>
+        <v>0.04811272519004504</v>
       </c>
       <c r="AQ24">
-        <v>-0.5967664395555207</v>
+        <v>-0.635135135135135</v>
       </c>
       <c r="AR24">
-        <v>-0.7200335184255646</v>
+        <v>-0.8837209302325582</v>
       </c>
       <c r="AS24">
-        <v>1.550215679448336</v>
+        <v>1.276595744680851</v>
       </c>
       <c r="AT24">
-        <v>-0.8942701244265611</v>
+        <v>-1.011673151750972</v>
       </c>
       <c r="AU24">
-        <v>-1.190695093327781</v>
+        <v>-1.489855072463768</v>
       </c>
       <c r="AV24">
-        <v>0.3481624758220503</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="AW24">
-        <v>-0.4715447154471543</v>
+        <v>-0.5074380165289258</v>
       </c>
       <c r="AX24">
-        <v>0.4020347519404016</v>
+        <v>0.4142943670502726</v>
       </c>
       <c r="AY24">
-        <v>2.463290553964899</v>
+        <v>2.074074074074074</v>
       </c>
       <c r="AZ24">
-        <v>0.4244917598010968</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="BA24">
-        <v>0.745053433349018</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="BB24">
-        <v>0.6734993251041138</v>
+        <v>0.7949395938943126</v>
       </c>
       <c r="BC24">
-        <v>0.5999999999999996</v>
+        <v>0.6315789473684206</v>
       </c>
       <c r="BD24">
-        <v>0.8106872730002669</v>
+        <v>1.193548387096774</v>
       </c>
       <c r="BE24">
-        <v>0.839742477870343</v>
+        <v>0.8538649854636158</v>
       </c>
       <c r="BF24">
-        <v>0.4727272727272727</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="BG24">
-        <v>-0.4659918801029574</v>
+        <v>-0.4972414188244959</v>
       </c>
       <c r="BH24">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI24">
         <v>0.9999999999999994</v>
       </c>
       <c r="BJ24">
-        <v>0.6980468834335505</v>
+        <v>0.7113722779122026</v>
       </c>
       <c r="BK24">
-        <v>0.8063529836786583</v>
+        <v>0.963455149501661</v>
       </c>
       <c r="BL24">
-        <v>-0.5503394489016783</v>
+        <v>-0.4212598425196847</v>
       </c>
       <c r="BM24">
-        <v>-1.499999999999998</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN24">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO24">
         <v>1</v>
@@ -6314,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="BR24">
-        <v>2.659040398635544</v>
+        <v>2</v>
       </c>
       <c r="BS24">
-        <v>-1.137521574674717</v>
+        <v>-0.9706313730006063</v>
       </c>
       <c r="BT24">
-        <v>0.4063847996547449</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="BU24">
         <v>1</v>
@@ -6329,16 +6329,16 @@
         <v>1</v>
       </c>
       <c r="BW24">
-        <v>-0.2997205104914875</v>
+        <v>-0.2858504049547403</v>
       </c>
       <c r="BX24">
-        <v>-0.4131837698048413</v>
+        <v>-0.5014037554306126</v>
       </c>
       <c r="BY24">
-        <v>-0.3291298988716804</v>
+        <v>-0.1552060265364451</v>
       </c>
       <c r="BZ24">
-        <v>0.8035526672730232</v>
+        <v>0.6497204933047365</v>
       </c>
       <c r="CA24">
         <v>1</v>
@@ -6352,25 +6352,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>-0.3858635433882315</v>
+        <v>-0.3720930232558139</v>
       </c>
       <c r="D25">
-        <v>0.3590270237852819</v>
+        <v>0.2564102564102574</v>
       </c>
       <c r="E25">
-        <v>0.5676050788801017</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="F25">
-        <v>0.6483312157122361</v>
+        <v>0.6613620919617758</v>
       </c>
       <c r="G25">
-        <v>0.5094339622641521</v>
+        <v>0.4786324786324791</v>
       </c>
       <c r="H25">
-        <v>-0.02976703789545922</v>
+        <v>-0.05</v>
       </c>
       <c r="I25">
-        <v>-1.441965741110811</v>
+        <v>-1.318681318681319</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -6394,16 +6394,16 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>-0.3551401869158878</v>
+        <v>-0.296875</v>
       </c>
       <c r="R25">
-        <v>-0.5323921249351755</v>
+        <v>-0.5</v>
       </c>
       <c r="S25">
-        <v>-0.2890700160326923</v>
+        <v>-0.25</v>
       </c>
       <c r="T25">
-        <v>-0.3482117787269273</v>
+        <v>-0.2173913043478259</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -6460,88 +6460,88 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>-0.06968467939733124</v>
+        <v>-0.04878048780487805</v>
       </c>
       <c r="AN25">
-        <v>0.02971268347759565</v>
+        <v>0.07854984894259813</v>
       </c>
       <c r="AO25">
-        <v>-0.1787484232480173</v>
+        <v>-0.09072164948453598</v>
       </c>
       <c r="AP25">
-        <v>1.767907102509951</v>
+        <v>1.780071488076642</v>
       </c>
       <c r="AQ25">
-        <v>-0.4524932343882519</v>
+        <v>-0.4864864864864863</v>
       </c>
       <c r="AR25">
-        <v>-0.3600167592127823</v>
+        <v>-0.5116279069767442</v>
       </c>
       <c r="AS25">
-        <v>-1.205723306237596</v>
+        <v>-0.9929078014184398</v>
       </c>
       <c r="AT25">
-        <v>-0.8514129815694176</v>
+        <v>-0.9649805447470804</v>
       </c>
       <c r="AU25">
-        <v>0.389338928346124</v>
+        <v>0.6492753623188408</v>
       </c>
       <c r="AV25">
-        <v>-0.2707930367504836</v>
+        <v>-0.4081632653061225</v>
       </c>
       <c r="AW25">
-        <v>2.32520325203252</v>
+        <v>2.619834710743802</v>
       </c>
       <c r="AX25">
-        <v>2.910856265987094</v>
+        <v>2.85221078134464</v>
       </c>
       <c r="AY25">
-        <v>3.167087855097727</v>
+        <v>2.666666666666666</v>
       </c>
       <c r="AZ25">
-        <v>0.2415080808494714</v>
+        <v>0.4210526315789481</v>
       </c>
       <c r="BA25">
-        <v>0.745053433349018</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="BB25">
-        <v>0.4567535593999554</v>
+        <v>0.5665825621050476</v>
       </c>
       <c r="BC25">
-        <v>0.5999999999999996</v>
+        <v>0.6315789473684206</v>
       </c>
       <c r="BD25">
-        <v>0.7093513638752336</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="BE25">
-        <v>0.5632044329993847</v>
+        <v>0.5982529569419692</v>
       </c>
       <c r="BF25">
-        <v>0.6181818181818182</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="BG25">
-        <v>-0.294788501488591</v>
+        <v>-0.3172057326983859</v>
       </c>
       <c r="BH25">
-        <v>-0.4528206503810529</v>
+        <v>-0.1739130434782611</v>
       </c>
       <c r="BI25">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ25">
-        <v>-0.3259672234712477</v>
+        <v>-0.1790528862772207</v>
       </c>
       <c r="BK25">
-        <v>-0.6307071777027297</v>
+        <v>-0.6179401993355482</v>
       </c>
       <c r="BL25">
-        <v>-0.7609693701615206</v>
+        <v>-0.631889763779527</v>
       </c>
       <c r="BM25">
-        <v>-0.5</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BN25">
-        <v>0.5269801000945997</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BO25">
         <v>1</v>
@@ -6553,13 +6553,13 @@
         <v>0</v>
       </c>
       <c r="BR25">
-        <v>0.997140149488329</v>
+        <v>0.75</v>
       </c>
       <c r="BS25">
-        <v>0.7498815953024149</v>
+        <v>0.8088594775005054</v>
       </c>
       <c r="BT25">
-        <v>-0.5290525819223449</v>
+        <v>-0.5535714285714286</v>
       </c>
       <c r="BU25">
         <v>1</v>
@@ -6568,16 +6568,16 @@
         <v>1</v>
       </c>
       <c r="BW25">
-        <v>-0.1567255365105397</v>
+        <v>-0.08194378275369217</v>
       </c>
       <c r="BX25">
-        <v>1.352960936545599</v>
+        <v>1.872662169120629</v>
       </c>
       <c r="BY25">
-        <v>-0.2514021206316274</v>
+        <v>-0.05943255162493141</v>
       </c>
       <c r="BZ25">
-        <v>-0.5329992982000676</v>
+        <v>-0.4309618784949707</v>
       </c>
       <c r="CA25">
         <v>1</v>
@@ -6591,25 +6591,25 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.3858635433882315</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="D26">
-        <v>0.5879964684174372</v>
+        <v>0.4615384615384624</v>
       </c>
       <c r="E26">
-        <v>0.4347381718775272</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F26">
-        <v>0.3572780771427674</v>
+        <v>0.3849897468539412</v>
       </c>
       <c r="G26">
-        <v>0.4716981132075473</v>
+        <v>0.4444444444444441</v>
       </c>
       <c r="H26">
-        <v>-0.5964337045621259</v>
+        <v>-0.6166666666666667</v>
       </c>
       <c r="I26">
-        <v>-0.6637620078129132</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -6633,16 +6633,16 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>0.4299065420560748</v>
+        <v>0.359375</v>
       </c>
       <c r="R26">
-        <v>0.2661960624675878</v>
+        <v>0.25</v>
       </c>
       <c r="S26">
-        <v>-0.2224033493660257</v>
+        <v>-0.1875</v>
       </c>
       <c r="T26">
-        <v>-0.2611588340451956</v>
+        <v>-0.1304347826086956</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -6699,88 +6699,88 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>1.324008908549294</v>
+        <v>2.552845528455284</v>
       </c>
       <c r="AN26">
-        <v>0.6139146328672588</v>
+        <v>0.6525679758308158</v>
       </c>
       <c r="AO26">
-        <v>0.615576294692783</v>
+        <v>0.7257731958762886</v>
       </c>
       <c r="AP26">
-        <v>2.671504066015038</v>
+        <v>2.728525096324065</v>
       </c>
       <c r="AQ26">
-        <v>-1.252553735770379</v>
+        <v>-1.310810810810811</v>
       </c>
       <c r="AR26">
-        <v>0.7200335184255646</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="AS26">
-        <v>0.7598993805624279</v>
+        <v>0.6257737735931211</v>
       </c>
       <c r="AT26">
-        <v>0.9343013041448681</v>
+        <v>0.980544747081712</v>
       </c>
       <c r="AU26">
-        <v>-0.1758764940412891</v>
+        <v>-0.1159420289855072</v>
       </c>
       <c r="AV26">
-        <v>0.1547388781431335</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="AW26">
-        <v>0.4863266814486327</v>
+        <v>0.5636363636363637</v>
       </c>
       <c r="AX26">
-        <v>0.206315508360113</v>
+        <v>0.224106602059358</v>
       </c>
       <c r="AY26">
-        <v>3.694935830947348</v>
+        <v>3.11111111111111</v>
       </c>
       <c r="AZ26">
-        <v>0.6074754387527238</v>
+        <v>0.8421052631578961</v>
       </c>
       <c r="BA26">
-        <v>0.6556470213471358</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="BB26">
-        <v>0.3793880118352775</v>
+        <v>0.4850724724051403</v>
       </c>
       <c r="BC26">
-        <v>0.5999999999999996</v>
+        <v>0.6315789473684206</v>
       </c>
       <c r="BD26">
-        <v>1.266698864062917</v>
+        <v>1.774193548387097</v>
       </c>
       <c r="BE26">
-        <v>1.153895640070264</v>
+        <v>1.144245743358548</v>
       </c>
       <c r="BF26">
-        <v>-0.4</v>
+        <v>-0.3272727272727273</v>
       </c>
       <c r="BG26">
-        <v>-1.386947985752656</v>
+        <v>-1.465709247640815</v>
       </c>
       <c r="BH26">
-        <v>-0.9056413007621048</v>
+        <v>-0.5217391304347826</v>
       </c>
       <c r="BI26">
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>-0.1128959652022369</v>
+        <v>0.006221914967162352</v>
       </c>
       <c r="BK26">
-        <v>-0.3569814326777035</v>
+        <v>-0.3167220376522704</v>
       </c>
       <c r="BL26">
-        <v>0.2921802361376902</v>
+        <v>0.4212598425196837</v>
       </c>
       <c r="BM26">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BN26">
-        <v>-0.5467422839491876</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BO26">
         <v>1</v>
@@ -6792,13 +6792,13 @@
         <v>0</v>
       </c>
       <c r="BR26">
-        <v>1.329520199317772</v>
+        <v>1</v>
       </c>
       <c r="BS26">
-        <v>-0.4082976226380978</v>
+        <v>-0.2831008171251769</v>
       </c>
       <c r="BT26">
-        <v>0.5339444425970754</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="BU26">
         <v>1</v>
@@ -6807,16 +6807,16 @@
         <v>1</v>
       </c>
       <c r="BW26">
-        <v>1.27990621142889</v>
+        <v>1.966650786088614</v>
       </c>
       <c r="BX26">
-        <v>0.342839026403325</v>
+        <v>0.5148481701381744</v>
       </c>
       <c r="BY26">
-        <v>1.420205948159395</v>
+        <v>2.000264985898965</v>
       </c>
       <c r="BZ26">
-        <v>11.50659703491837</v>
+        <v>9.303773363303186</v>
       </c>
       <c r="CA26">
         <v>0</v>
@@ -6830,25 +6830,25 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.3001160893019578</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="D27">
-        <v>0.1300575791531266</v>
+        <v>0.05128205128205239</v>
       </c>
       <c r="E27">
-        <v>1.099072706890399</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="F27">
-        <v>1.472435857114416</v>
+        <v>1.4438986881243</v>
       </c>
       <c r="G27">
-        <v>0.8867924528301903</v>
+        <v>0.8205128205128213</v>
       </c>
       <c r="H27">
-        <v>-1.263100371228792</v>
+        <v>-1.283333333333333</v>
       </c>
       <c r="I27">
-        <v>1.258858980334835</v>
+        <v>1.274725274725275</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6872,16 +6872,16 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0.9158878504672897</v>
+        <v>0.765625</v>
       </c>
       <c r="R27">
-        <v>1.064784249870351</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0.1775966506339743</v>
+        <v>0.1875</v>
       </c>
       <c r="T27">
-        <v>0.0870529446817315</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -6938,88 +6938,88 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>14.21567459705557</v>
+        <v>26.61788617886179</v>
       </c>
       <c r="AN27">
-        <v>-0.9480568949745771</v>
+        <v>-0.8821752265861028</v>
       </c>
       <c r="AO27">
-        <v>-1.173660191173868</v>
+        <v>-1.11340206185567</v>
       </c>
       <c r="AP27">
-        <v>-0.5500155430030961</v>
+        <v>-0.6529182026450066</v>
       </c>
       <c r="AQ27">
-        <v>0.2295255536752003</v>
+        <v>0.2162162162162164</v>
       </c>
       <c r="AR27">
-        <v>0.3600167592127823</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="AS27">
-        <v>-0.109089251516735</v>
+        <v>-0.08983451536643043</v>
       </c>
       <c r="AT27">
-        <v>0.02001558985915405</v>
+        <v>-0.01556420233462946</v>
       </c>
       <c r="AU27">
-        <v>-0.1930042341136346</v>
+        <v>-0.1391304347826082</v>
       </c>
       <c r="AV27">
-        <v>0.1160541586073501</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>0.06651884700665188</v>
+        <v>0.09421487603305768</v>
       </c>
       <c r="AX27">
-        <v>-0.08726335701031976</v>
+        <v>-0.06117504542701394</v>
       </c>
       <c r="AY27">
-        <v>0.4496482757237515</v>
+        <v>0.3786008230452675</v>
       </c>
       <c r="AZ27">
-        <v>-0.3074429560054064</v>
+        <v>-0.2105263157894731</v>
       </c>
       <c r="BA27">
-        <v>-0.2980213733396072</v>
+        <v>-0.253968253968254</v>
       </c>
       <c r="BB27">
-        <v>-0.879056417759428</v>
+        <v>-0.8407879598868852</v>
       </c>
       <c r="BC27">
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>-0.3040077273751001</v>
+        <v>-0.2258064516129032</v>
       </c>
       <c r="BE27">
-        <v>-0.5981027864798476</v>
+        <v>-0.4751765389758054</v>
       </c>
       <c r="BF27">
-        <v>-0.4727272727272727</v>
+        <v>-0.4</v>
       </c>
       <c r="BG27">
-        <v>-0.01449978428807813</v>
+        <v>-0.02245704302289454</v>
       </c>
       <c r="BH27">
-        <v>0.4528206503810519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BI27">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ27">
-        <v>-0.2305621824552727</v>
+        <v>-0.09609402004839253</v>
       </c>
       <c r="BK27">
-        <v>-0.6951132353556768</v>
+        <v>-0.688815060908084</v>
       </c>
       <c r="BL27">
-        <v>0.08155031487784879</v>
+        <v>0.2106299212598423</v>
       </c>
       <c r="BM27">
         <v>0</v>
       </c>
       <c r="BN27">
-        <v>-0.2783116879382408</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BO27">
         <v>1</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="BR27">
-        <v>0.6647600996588859</v>
+        <v>0.5</v>
       </c>
       <c r="BS27">
-        <v>-1.094626048084328</v>
+        <v>-0.9301883991255812</v>
       </c>
       <c r="BT27">
-        <v>1.596941467116496</v>
+        <v>1.232142857142857</v>
       </c>
       <c r="BU27">
         <v>1</v>
@@ -7046,16 +7046,16 @@
         <v>1</v>
       </c>
       <c r="BW27">
-        <v>11.65394656678189</v>
+        <v>16.75972685405749</v>
       </c>
       <c r="BX27">
-        <v>0.4822572378703672</v>
+        <v>0.7022552517412088</v>
       </c>
       <c r="BY27">
-        <v>0.05705119696921555</v>
+        <v>0.3206329377472413</v>
       </c>
       <c r="BZ27">
-        <v>-0.2116595140566457</v>
+        <v>-0.1711394031609873</v>
       </c>
       <c r="CA27">
         <v>0</v>
@@ -7069,25 +7069,25 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>-0.4716109974745051</v>
+        <v>-0.4651162790697674</v>
       </c>
       <c r="D28">
-        <v>1.503874246946058</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="E28">
-        <v>1.32051755189469</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="F28">
-        <v>0.9220150371777096</v>
+        <v>0.921241232685879</v>
       </c>
       <c r="G28">
-        <v>1.415094339622642</v>
+        <v>1.299145299145299</v>
       </c>
       <c r="H28">
-        <v>-0.1297670378954592</v>
+        <v>-0.15</v>
       </c>
       <c r="I28">
-        <v>-0.4348785568429431</v>
+        <v>-0.3516483516483517</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -7111,16 +7111,16 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>-0.8411214953271028</v>
+        <v>-0.703125</v>
       </c>
       <c r="R28">
-        <v>-0.5856313374286932</v>
+        <v>-0.55</v>
       </c>
       <c r="S28">
-        <v>-0.8224033493660257</v>
+        <v>-0.75</v>
       </c>
       <c r="T28">
-        <v>-0.6964235574538546</v>
+        <v>-0.5652173913043478</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -7177,88 +7177,88 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>-0.2351857929659929</v>
+        <v>-0.3577235772357724</v>
       </c>
       <c r="AN28">
-        <v>0.6339722331296378</v>
+        <v>0.6722759315206452</v>
       </c>
       <c r="AO28">
-        <v>0.4710052479649859</v>
+        <v>0.5771670757650137</v>
       </c>
       <c r="AP28">
-        <v>0.1137558932227657</v>
+        <v>0.04380438404665264</v>
       </c>
       <c r="AQ28">
-        <v>0.8308929136263866</v>
+        <v>0.8358215358215354</v>
       </c>
       <c r="AR28">
-        <v>0.04500209490159779</v>
+        <v>-0.09302325581395349</v>
       </c>
       <c r="AS28">
-        <v>1.43538488837809</v>
+        <v>1.182033096926714</v>
       </c>
       <c r="AT28">
-        <v>-0.2799844101408461</v>
+        <v>-0.3424124513618668</v>
       </c>
       <c r="AU28">
-        <v>0.8218143651728571</v>
+        <v>1.234782608695653</v>
       </c>
       <c r="AV28">
-        <v>-0.6576402321083173</v>
+        <v>-0.8163265306122449</v>
       </c>
       <c r="AW28">
-        <v>-0.4597191426459718</v>
+        <v>-0.4942148760330581</v>
       </c>
       <c r="AX28">
-        <v>-0.3515466668130023</v>
+        <v>-0.3179890975166566</v>
       </c>
       <c r="AY28">
-        <v>-0.9188464764789703</v>
+        <v>-0.773662551440329</v>
       </c>
       <c r="AZ28">
-        <v>-0.124459277053781</v>
+        <v>0</v>
       </c>
       <c r="BA28">
-        <v>-0.1490106866698036</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="BB28">
-        <v>-0.9409194255546902</v>
+        <v>-0.9059650247849571</v>
       </c>
       <c r="BC28">
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>-0.3040077273751001</v>
+        <v>-0.2258064516129032</v>
       </c>
       <c r="BE28">
-        <v>-0.7553569021149772</v>
+        <v>-0.6205310181746074</v>
       </c>
       <c r="BF28">
-        <v>-0.1090909090909091</v>
+        <v>-0.03636363636363636</v>
       </c>
       <c r="BG28">
-        <v>0.2420356517937455</v>
+        <v>0.247312944137723</v>
       </c>
       <c r="BH28">
-        <v>0.4528206503810519</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="BI28">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ28">
-        <v>0.3164267193696503</v>
+        <v>0.3795368129968894</v>
       </c>
       <c r="BK28">
-        <v>-0.3408799182644665</v>
+        <v>-0.2990033222591362</v>
       </c>
       <c r="BL28">
-        <v>0.08155031487784879</v>
+        <v>0.2106299212598423</v>
       </c>
       <c r="BM28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BN28">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO28">
         <v>1</v>
@@ -7270,13 +7270,13 @@
         <v>0</v>
       </c>
       <c r="BR28">
-        <v>-0.332380049829443</v>
+        <v>-0.25</v>
       </c>
       <c r="BS28">
-        <v>1.522001073929423</v>
+        <v>1.53683300725096</v>
       </c>
       <c r="BT28">
-        <v>-0.954251391730113</v>
+        <v>-0.9107142857142857</v>
       </c>
       <c r="BU28">
         <v>0</v>
@@ -7285,16 +7285,16 @@
         <v>0</v>
       </c>
       <c r="BW28">
-        <v>-0.3066697989466364</v>
+        <v>-0.295759885659838</v>
       </c>
       <c r="BX28">
-        <v>-0.223868339998948</v>
+        <v>-0.2469244314670166</v>
       </c>
       <c r="BY28">
-        <v>-0.2832612929774515</v>
+        <v>-0.09868831980012496</v>
       </c>
       <c r="BZ28">
-        <v>-1.328553291167549</v>
+        <v>-1.074214964214319</v>
       </c>
       <c r="CA28">
         <v>0</v>
@@ -7308,25 +7308,25 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.986095721992147</v>
+        <v>1.116279069767442</v>
       </c>
       <c r="D29">
-        <v>-0.4423660324272617</v>
+        <v>-0.4615384615384601</v>
       </c>
       <c r="E29">
-        <v>-0.6724860531439263</v>
+        <v>-0.6818181818181818</v>
       </c>
       <c r="F29">
-        <v>-0.5962647285127028</v>
+        <v>-0.5204561200244411</v>
       </c>
       <c r="G29">
-        <v>-0.8490566037735847</v>
+        <v>-0.7521367521367521</v>
       </c>
       <c r="H29">
-        <v>-0.1631003712287926</v>
+        <v>-0.1833333333333333</v>
       </c>
       <c r="I29">
-        <v>0.2975484862609611</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -7350,16 +7350,16 @@
         <v>3</v>
       </c>
       <c r="Q29">
-        <v>1.588785046728972</v>
+        <v>1.328125</v>
       </c>
       <c r="R29">
-        <v>3.460548812078641</v>
+        <v>3.25</v>
       </c>
       <c r="S29">
-        <v>1.244263317300641</v>
+        <v>1.1875</v>
       </c>
       <c r="T29">
-        <v>1.828111838316367</v>
+        <v>1.956521739130435</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -7416,88 +7416,88 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>-0.1567905286439953</v>
+        <v>-0.2113821138211382</v>
       </c>
       <c r="AN29">
-        <v>-0.7583003905423051</v>
+        <v>-0.6957265621253542</v>
       </c>
       <c r="AO29">
-        <v>-1.254078405042161</v>
+        <v>-1.196064801178203</v>
       </c>
       <c r="AP29">
-        <v>0.3093697544486991</v>
+        <v>0.2491289701135056</v>
       </c>
       <c r="AQ29">
-        <v>-0.1557547028199365</v>
+        <v>-0.1807486215206802</v>
       </c>
       <c r="AR29">
-        <v>0.6750314235239668</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="AS29">
-        <v>1.131083292041934</v>
+        <v>0.9314420803782504</v>
       </c>
       <c r="AT29">
-        <v>0.4485870184305826</v>
+        <v>0.4513618677042807</v>
       </c>
       <c r="AU29">
-        <v>1.057320791167613</v>
+        <v>1.553623188405798</v>
       </c>
       <c r="AV29">
-        <v>-1.121856866537718</v>
+        <v>-1.306122448979592</v>
       </c>
       <c r="AW29">
-        <v>-0.8085735402808573</v>
+        <v>-0.8842975206611573</v>
       </c>
       <c r="AX29">
-        <v>-0.4057746100979868</v>
+        <v>-0.3706844336765597</v>
       </c>
       <c r="AY29">
-        <v>-0.8601967013845679</v>
+        <v>-0.7242798353909463</v>
       </c>
       <c r="AZ29">
-        <v>1.522393833510854</v>
+        <v>1.894736842105265</v>
       </c>
       <c r="BA29">
-        <v>1.341096180028232</v>
+        <v>1.492063492063492</v>
       </c>
       <c r="BB29">
-        <v>2.257336993795886</v>
+        <v>2.463624874473905</v>
       </c>
       <c r="BC29">
-        <v>2.2</v>
+        <v>2.31578947368421</v>
       </c>
       <c r="BD29">
-        <v>2.533397728125834</v>
+        <v>3.387096774193548</v>
       </c>
       <c r="BE29">
-        <v>3.581532299454453</v>
+        <v>3.388179778938598</v>
       </c>
       <c r="BF29">
-        <v>-0.5454545454545454</v>
+        <v>-0.4727272727272727</v>
       </c>
       <c r="BG29">
-        <v>-2.255474813715031</v>
+        <v>-2.379042995237889</v>
       </c>
       <c r="BH29">
-        <v>-0.4528206503810529</v>
+        <v>-0.1739130434782611</v>
       </c>
       <c r="BI29">
         <v>0.5000000000000002</v>
       </c>
       <c r="BJ29">
-        <v>0.9667710822952128</v>
+        <v>0.9450397511234018</v>
       </c>
       <c r="BK29">
-        <v>1.993839671654875</v>
+        <v>2.270210409745293</v>
       </c>
       <c r="BL29">
-        <v>1.13469992117706</v>
+        <v>1.263779527559053</v>
       </c>
       <c r="BM29">
-        <v>3.999999999999996</v>
+        <v>2.666666666666664</v>
       </c>
       <c r="BN29">
-        <v>1.600702484138386</v>
+        <v>1.999999999999998</v>
       </c>
       <c r="BO29">
         <v>1</v>
@@ -7509,13 +7509,13 @@
         <v>0</v>
       </c>
       <c r="BR29">
-        <v>1.661900249147215</v>
+        <v>1.25</v>
       </c>
       <c r="BS29">
-        <v>2.251225025966042</v>
+        <v>2.224363563126389</v>
       </c>
       <c r="BT29">
-        <v>-1.507009844480212</v>
+        <v>-1.375</v>
       </c>
       <c r="BU29">
         <v>1</v>
@@ -7524,16 +7524,16 @@
         <v>1</v>
       </c>
       <c r="BW29">
-        <v>-0.00223750854607639</v>
+        <v>0.1383515959980943</v>
       </c>
       <c r="BX29">
-        <v>-0.1200950209379359</v>
+        <v>-0.1074315010324429</v>
       </c>
       <c r="BY29">
-        <v>-0.01361041961265085</v>
+        <v>0.233566142373138</v>
       </c>
       <c r="BZ29">
-        <v>1.793294023022812</v>
+        <v>1.449985700667132</v>
       </c>
       <c r="CA29">
         <v>0</v>
@@ -7547,25 +7547,25 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>-0.2143686352156841</v>
+        <v>-0.186046511627907</v>
       </c>
       <c r="D30">
-        <v>0.2445423014692042</v>
+        <v>0.1538461538461549</v>
       </c>
       <c r="E30">
-        <v>-0.8939308981482169</v>
+        <v>-0.9090909090909091</v>
       </c>
       <c r="F30">
-        <v>-1.175203492544087</v>
+        <v>-1.070193067289812</v>
       </c>
       <c r="G30">
-        <v>-0.9622641509433961</v>
+        <v>-0.8547008547008548</v>
       </c>
       <c r="H30">
-        <v>0.07023296210454077</v>
+        <v>0.05</v>
       </c>
       <c r="I30">
-        <v>-0.8468687685888893</v>
+        <v>-0.7472527472527473</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -7589,16 +7589,16 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>-0.2803738317757009</v>
+        <v>-0.234375</v>
       </c>
       <c r="R30">
-        <v>-0.2661960624675878</v>
+        <v>-0.25</v>
       </c>
       <c r="S30">
-        <v>0.1775966506339743</v>
+        <v>0.1875</v>
       </c>
       <c r="T30">
-        <v>0.0870529446817315</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -7655,88 +7655,88 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>-0.1916328683426609</v>
+        <v>-0.2764227642276423</v>
       </c>
       <c r="AN30">
-        <v>-0.9542063891786789</v>
+        <v>-0.8882175226586105</v>
       </c>
       <c r="AO30">
-        <v>-0.9650496591894157</v>
+        <v>-0.8989690721649484</v>
       </c>
       <c r="AP30">
-        <v>-1.100031086006192</v>
+        <v>-1.230237790273872</v>
       </c>
       <c r="AQ30">
-        <v>-0.1377153322051201</v>
+        <v>-0.162162162162162</v>
       </c>
       <c r="AR30">
-        <v>0.2250104745079889</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="AS30">
-        <v>1.090892515167348</v>
+        <v>0.8983451536643022</v>
       </c>
       <c r="AT30">
-        <v>0.5628727327162965</v>
+        <v>0.575875486381323</v>
       </c>
       <c r="AU30">
-        <v>0.8946072604803266</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AV30">
-        <v>-0.7736943907156675</v>
+        <v>-0.9387755102040817</v>
       </c>
       <c r="AW30">
-        <v>0.3207686622320769</v>
+        <v>0.3785123966942148</v>
       </c>
       <c r="AX30">
-        <v>0.7043399530118664</v>
+        <v>0.7080557238037554</v>
       </c>
       <c r="AY30">
-        <v>-0.430098350692284</v>
+        <v>-0.3621399176954732</v>
       </c>
       <c r="AZ30">
-        <v>-1.771312387618416</v>
+        <v>-1.894736842105265</v>
       </c>
       <c r="BA30">
-        <v>-0.7748555706829787</v>
+        <v>-0.7619047619047619</v>
       </c>
       <c r="BB30">
-        <v>-0.5234003620346646</v>
+        <v>-0.4660790886001498</v>
       </c>
       <c r="BC30">
-        <v>-1.8</v>
+        <v>-1.894736842105263</v>
       </c>
       <c r="BD30">
-        <v>-1.418702727750467</v>
+        <v>-1.645161290322581</v>
       </c>
       <c r="BE30">
-        <v>-1.243660052294582</v>
+        <v>-1.071883593583037</v>
       </c>
       <c r="BF30">
-        <v>-0.03636363636363636</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="BG30">
-        <v>1.86025608911081</v>
+        <v>1.949016666889045</v>
       </c>
       <c r="BH30">
-        <v>-0.4528206503810529</v>
+        <v>-0.1739130434782611</v>
       </c>
       <c r="BI30">
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>-1.21641427295368</v>
+        <v>-0.9533356377462842</v>
       </c>
       <c r="BK30">
-        <v>-1.049346552446887</v>
+        <v>-1.078626799557032</v>
       </c>
       <c r="BL30">
-        <v>-0.1290796063819936</v>
+        <v>0</v>
       </c>
       <c r="BM30">
-        <v>-1.499999999999998</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN30">
-        <v>-0.8151728799601332</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BO30">
         <v>0</v>
@@ -7748,13 +7748,13 @@
         <v>0</v>
       </c>
       <c r="BR30">
-        <v>-0.6647600996588859</v>
+        <v>-0.5</v>
       </c>
       <c r="BS30">
-        <v>-0.193819989686151</v>
+        <v>-0.08088594775005054</v>
       </c>
       <c r="BT30">
-        <v>0.3213450376931913</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="BU30">
         <v>0</v>
@@ -7763,16 +7763,16 @@
         <v>0</v>
       </c>
       <c r="BW30">
-        <v>-0.3894376063162941</v>
+        <v>-0.4137843417500396</v>
       </c>
       <c r="BX30">
-        <v>0.1964745573902223</v>
+        <v>0.3181038732526305</v>
       </c>
       <c r="BY30">
-        <v>-0.3601595652837174</v>
+        <v>-0.1934397062442035</v>
       </c>
       <c r="BZ30">
-        <v>0.08314921922638649</v>
+        <v>0.06723112738460471</v>
       </c>
       <c r="CA30">
         <v>0</v>
@@ -7786,25 +7786,25 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.9003482679058734</v>
+        <v>1.023255813953488</v>
       </c>
       <c r="D31">
-        <v>0.5879964684174372</v>
+        <v>0.4615384615384624</v>
       </c>
       <c r="E31">
-        <v>-0.1853073941344867</v>
+        <v>-0.1818181818181818</v>
       </c>
       <c r="F31">
-        <v>-0.4165317149051102</v>
+        <v>-0.3497888847966282</v>
       </c>
       <c r="G31">
-        <v>-0.132075471698113</v>
+        <v>-0.1025641025641027</v>
       </c>
       <c r="H31">
-        <v>-0.2297670378954592</v>
+        <v>-0.25</v>
       </c>
       <c r="I31">
-        <v>-0.06866503529099102</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -7828,16 +7828,16 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0.7663551401869159</v>
+        <v>0.640625</v>
       </c>
       <c r="R31">
-        <v>0.7985881874027634</v>
+        <v>0.75</v>
       </c>
       <c r="S31">
-        <v>0.3775966506339744</v>
+        <v>0.375</v>
       </c>
       <c r="T31">
-        <v>0.2611588340451952</v>
+        <v>0.3913043478260871</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -7894,88 +7894,88 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>-0.06968467939733124</v>
+        <v>-0.04878048780487805</v>
       </c>
       <c r="AN31">
-        <v>0.5093732313975297</v>
+        <v>0.5498489425981875</v>
       </c>
       <c r="AO31">
-        <v>0.7118580786856074</v>
+        <v>0.8247422680412372</v>
       </c>
       <c r="AP31">
-        <v>-0.03928682450022118</v>
+        <v>-0.1168357284182025</v>
       </c>
       <c r="AQ31">
-        <v>-0.07213660258363429</v>
+        <v>-0.09459459459459438</v>
       </c>
       <c r="AR31">
-        <v>-0.2700125694095867</v>
+        <v>-0.4186046511627907</v>
       </c>
       <c r="AS31">
-        <v>-0.1586841869467602</v>
+        <v>-0.1306757249910307</v>
       </c>
       <c r="AT31">
-        <v>-0.5656986958551319</v>
+        <v>-0.6536964980544736</v>
       </c>
       <c r="AU31">
-        <v>0.04250219188112084</v>
+        <v>0.1797101449275367</v>
       </c>
       <c r="AV31">
-        <v>-0.2707930367504836</v>
+        <v>-0.4081632653061225</v>
       </c>
       <c r="AW31">
-        <v>-0.7021433850702141</v>
+        <v>-0.7652892561983473</v>
       </c>
       <c r="AX31">
-        <v>-0.3602730025140343</v>
+        <v>-0.3264688067837674</v>
       </c>
       <c r="AY31">
-        <v>-0.390998500629349</v>
+        <v>-0.3292181069958847</v>
       </c>
       <c r="AZ31">
-        <v>-0.124459277053781</v>
+        <v>0</v>
       </c>
       <c r="BA31">
-        <v>-0.1490106866698036</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="BB31">
-        <v>-0.2043109487948578</v>
+        <v>-0.1298957678044972</v>
       </c>
       <c r="BC31">
-        <v>0.3999999999999995</v>
+        <v>0.4210526315789467</v>
       </c>
       <c r="BD31">
-        <v>0.15200386368755</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="BE31">
-        <v>0.2749103326383624</v>
+        <v>0.3317744699095937</v>
       </c>
       <c r="BF31">
-        <v>-0.7636363636363637</v>
+        <v>-0.6909090909090909</v>
       </c>
       <c r="BG31">
-        <v>-0.7242478241144612</v>
+        <v>-0.768820674167274</v>
       </c>
       <c r="BH31">
-        <v>0</v>
+        <v>0.1739130434782611</v>
       </c>
       <c r="BI31">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ31">
-        <v>-0.3275573074881805</v>
+        <v>-0.1804355340477011</v>
       </c>
       <c r="BK31">
-        <v>-0.2966007536280654</v>
+        <v>-0.2502768549280179</v>
       </c>
       <c r="BL31">
-        <v>-0.5503394489016783</v>
+        <v>-0.4212598425196847</v>
       </c>
       <c r="BM31">
-        <v>-1.499999999999998</v>
+        <v>-0.9999999999999986</v>
       </c>
       <c r="BN31">
-        <v>0.2585495040836528</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BO31">
         <v>0</v>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="BR31">
-        <v>0.332380049829443</v>
+        <v>0.25</v>
       </c>
       <c r="BS31">
-        <v>0.06355316985618518</v>
+        <v>0.1617718955001011</v>
       </c>
       <c r="BT31">
-        <v>-0.1038537721145768</v>
+        <v>-0.1964285714285714</v>
       </c>
       <c r="BU31">
         <v>1</v>
@@ -8002,16 +8002,16 @@
         <v>1</v>
       </c>
       <c r="BW31">
-        <v>-0.1586855922286586</v>
+        <v>-0.08473876449102739</v>
       </c>
       <c r="BX31">
-        <v>0.07946797248294564</v>
+        <v>0.1608226803935899</v>
       </c>
       <c r="BY31">
-        <v>-0.1598492434951222</v>
+        <v>0.05337573107716766</v>
       </c>
       <c r="BZ31">
-        <v>-0.990916704528489</v>
+        <v>-0.8012155472957981</v>
       </c>
       <c r="CA31">
         <v>1</v>
@@ -8025,25 +8025,25 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>-0.2143686352156841</v>
+        <v>-0.186046511627907</v>
       </c>
       <c r="D32">
-        <v>0.3590270237852819</v>
+        <v>0.2564102564102574</v>
       </c>
       <c r="E32">
-        <v>0.1247153888715203</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="F32">
-        <v>0.08283067500873023</v>
+        <v>0.1243855406621122</v>
       </c>
       <c r="G32">
-        <v>0.09433962264150914</v>
+        <v>0.1025641025641019</v>
       </c>
       <c r="H32">
-        <v>-0.4297670378954592</v>
+        <v>-0.45</v>
       </c>
       <c r="I32">
-        <v>1.625072501886788</v>
+        <v>1.626373626373626</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0.1682242990654206</v>
+        <v>0.140625</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
-        <v>-0.2890700160326923</v>
+        <v>-0.25</v>
       </c>
       <c r="T32">
-        <v>-0.3482117787269273</v>
+        <v>-0.2173913043478259</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -8133,88 +8133,88 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>208.7230359648564</v>
+        <v>389.7073170731707</v>
       </c>
       <c r="AN32">
-        <v>-0.6405821847694914</v>
+        <v>-0.5800604229607251</v>
       </c>
       <c r="AO32">
-        <v>-0.7002747532091488</v>
+        <v>-0.6268041237113401</v>
       </c>
       <c r="AP32">
-        <v>0.1571472980008847</v>
+        <v>0.08934983859210693</v>
       </c>
       <c r="AQ32">
-        <v>-0.5574192017826293</v>
+        <v>-0.5945945945945945</v>
       </c>
       <c r="AR32">
-        <v>-0.04500209490159779</v>
+        <v>-0.186046511627907</v>
       </c>
       <c r="AS32">
-        <v>-0.7808493792776809</v>
+        <v>-0.6430260047281324</v>
       </c>
       <c r="AT32">
-        <v>0.1485870184305824</v>
+        <v>0.1245136186770434</v>
       </c>
       <c r="AU32">
-        <v>-1.421919584304449</v>
+        <v>-1.802898550724637</v>
       </c>
       <c r="AV32">
-        <v>1.121856866537718</v>
+        <v>1.061224489795918</v>
       </c>
       <c r="AW32">
-        <v>0.3059866962305987</v>
+        <v>0.3619834710743801</v>
       </c>
       <c r="AX32">
-        <v>0.7030933336260045</v>
+        <v>0.7068443367655965</v>
       </c>
       <c r="AY32">
-        <v>-0.7428971511957632</v>
+        <v>-0.6255144032921809</v>
       </c>
       <c r="AZ32">
-        <v>-0.124459277053781</v>
+        <v>0</v>
       </c>
       <c r="BA32">
-        <v>-0.05960427466792144</v>
+        <v>0</v>
       </c>
       <c r="BB32">
-        <v>-0.2251961002577773</v>
+        <v>-0.1518997556611791</v>
       </c>
       <c r="BC32">
-        <v>0.3999999999999995</v>
+        <v>0.4210526315789467</v>
       </c>
       <c r="BD32">
-        <v>0.05066795456251668</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="BE32">
-        <v>0.06083815017259506</v>
+        <v>0.1339014255852053</v>
       </c>
       <c r="BF32">
-        <v>-0.4</v>
+        <v>-0.3272727272727273</v>
       </c>
       <c r="BG32">
-        <v>-0.3471399478417443</v>
+        <v>-0.3722579672989319</v>
       </c>
       <c r="BH32">
-        <v>-0.4528206503810529</v>
+        <v>-0.1739130434782611</v>
       </c>
       <c r="BI32">
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>-0.3275573074881805</v>
+        <v>-0.1804355340477011</v>
       </c>
       <c r="BK32">
-        <v>-0.4213874903306506</v>
+        <v>-0.3875968992248062</v>
       </c>
       <c r="BL32">
-        <v>0.5028101573975325</v>
+        <v>0.6318897637795261</v>
       </c>
       <c r="BM32">
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>0.7954106961055454</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="BO32">
         <v>1</v>
@@ -8226,13 +8226,13 @@
         <v>0</v>
       </c>
       <c r="BR32">
-        <v>0.6647600996588859</v>
+        <v>0.5</v>
       </c>
       <c r="BS32">
-        <v>-0.4940886758188764</v>
+        <v>-0.3639867648752274</v>
       </c>
       <c r="BT32">
-        <v>0.7040239665201826</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="BU32">
         <v>1</v>
@@ -8241,16 +8241,16 @@
         <v>1</v>
       </c>
       <c r="BW32">
-        <v>0.1371046343238317</v>
+        <v>0.337049388597745</v>
       </c>
       <c r="BX32">
-        <v>0.06133628182275021</v>
+        <v>0.1364499159218588</v>
       </c>
       <c r="BY32">
-        <v>-0.3544759135151759</v>
+        <v>-0.1864365074858517</v>
       </c>
       <c r="BZ32">
-        <v>-0.2403994075745793</v>
+        <v>-0.1943773296274213</v>
       </c>
       <c r="CA32">
         <v>0</v>
@@ -8264,25 +8264,25 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.04287372704313683</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="D33">
-        <v>-0.09891186547902873</v>
+        <v>-0.1538461538461526</v>
       </c>
       <c r="E33">
-        <v>-0.05244048713191229</v>
+        <v>-0.04545454545454546</v>
       </c>
       <c r="F33">
-        <v>0.08279936702031827</v>
+        <v>0.1243558118565046</v>
       </c>
       <c r="G33">
-        <v>-0.1698113207547168</v>
+        <v>-0.1367521367521369</v>
       </c>
       <c r="H33">
-        <v>-0.5964337045621259</v>
+        <v>-0.6166666666666667</v>
       </c>
       <c r="I33">
-        <v>-1.029975529364865</v>
+        <v>-0.9230769230769231</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>0.1682242990654206</v>
+        <v>0.140625</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>-0.2224033493660257</v>
+        <v>-0.1875</v>
       </c>
       <c r="T33">
-        <v>-0.2611588340451956</v>
+        <v>-0.1304347826086956</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -8372,88 +8372,88 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>-0.1829222834179945</v>
+        <v>-0.2601626016260163</v>
       </c>
       <c r="AN33">
-        <v>1.148920628624108</v>
+        <v>1.178247734138973</v>
       </c>
       <c r="AO33">
-        <v>1.417924494632986</v>
+        <v>1.550515463917526</v>
       </c>
       <c r="AP33">
-        <v>2.082201698511721</v>
+        <v>2.109968395293138</v>
       </c>
       <c r="AQ33">
-        <v>-1.173859260224596</v>
+        <v>-1.22972972972973</v>
       </c>
       <c r="AR33">
-        <v>0.4050188541143801</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="AS33">
-        <v>0.7464001419566065</v>
+        <v>0.6146572104018911</v>
       </c>
       <c r="AT33">
-        <v>0.9628727327162961</v>
+        <v>1.011673151750972</v>
       </c>
       <c r="AU33">
-        <v>0.2437531377311847</v>
+        <v>0.4521739130434789</v>
       </c>
       <c r="AV33">
-        <v>0.1934235976789169</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="AW33">
-        <v>-0.01034737620103457</v>
+        <v>0.008264462809917357</v>
       </c>
       <c r="AX33">
-        <v>-0.2250147991480388</v>
+        <v>-0.1950333131435494</v>
       </c>
       <c r="AY33">
-        <v>-1.016596101636308</v>
+        <v>-0.8559670781893002</v>
       </c>
       <c r="AZ33">
-        <v>0.2415080808494714</v>
+        <v>0.4210526315789481</v>
       </c>
       <c r="BA33">
-        <v>-0.1490106866698036</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="BB33">
-        <v>-0.182495018298486</v>
+        <v>-0.1069111382423577</v>
       </c>
       <c r="BC33">
-        <v>0.3999999999999995</v>
+        <v>0.4210526315789467</v>
       </c>
       <c r="BD33">
-        <v>-0.6586834093127168</v>
+        <v>-0.6774193548387096</v>
       </c>
       <c r="BE33">
-        <v>-0.6122473365634302</v>
+        <v>-0.4882507513905121</v>
       </c>
       <c r="BF33">
-        <v>0.4</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="BG33">
-        <v>0.9935894663890167</v>
+        <v>1.037639091708275</v>
       </c>
       <c r="BH33">
-        <v>-0.9056413007621048</v>
+        <v>-0.5217391304347826</v>
       </c>
       <c r="BI33">
         <v>-0.4999999999999997</v>
       </c>
       <c r="BJ33">
-        <v>-0.2642860885281815</v>
+        <v>-0.125418435014553</v>
       </c>
       <c r="BK33">
-        <v>-0.2824836923549282</v>
+        <v>-0.2347419068190054</v>
       </c>
       <c r="BL33">
-        <v>-0.1290796063819936</v>
+        <v>0</v>
       </c>
       <c r="BM33">
-        <v>-1</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="BN33">
-        <v>-0.009881091927293948</v>
+        <v>0</v>
       </c>
       <c r="BO33">
         <v>1</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="BR33">
-        <v>-0.1955538448073728</v>
+        <v>-0.1470860276569841</v>
       </c>
       <c r="BS33">
-        <v>-0.2573146656894628</v>
+        <v>-0.1407503141984733</v>
       </c>
       <c r="BT33">
-        <v>0.09327845853724057</v>
+        <v>-0.03084869099154832</v>
       </c>
       <c r="BU33">
         <v>0</v>
@@ -8480,16 +8480,16 @@
         <v>1</v>
       </c>
       <c r="BW33">
-        <v>-0.08678718475038757</v>
+        <v>0.01778624741940614</v>
       </c>
       <c r="BX33">
-        <v>0.3883994211634513</v>
+        <v>0.5760908193504395</v>
       </c>
       <c r="BY33">
-        <v>-0.2225230251590385</v>
+        <v>-0.02384873090681965</v>
       </c>
       <c r="BZ33">
-        <v>-0.3771125215776262</v>
+        <v>-0.3049180763500081</v>
       </c>
       <c r="CA33">
         <v>0</v>
